--- a/question-manager-service/assets/MoviesBasicAll.xlsx
+++ b/question-manager-service/assets/MoviesBasicAll.xlsx
@@ -136,7 +136,7 @@
     <t xml:space="preserve"> Akshaye Khanna</t>
   </si>
   <si>
-    <t xml:space="preserve">comedy</t>
+    <t xml:space="preserve">Comedy</t>
   </si>
   <si>
     <t xml:space="preserve">What is Shah Rukh's mantra to woo a girl in Kal Ho Naa Ho?</t>
@@ -1994,7 +1994,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2042,6 +2042,14 @@
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2119,7 +2127,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2148,7 +2156,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2156,22 +2176,18 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -2243,8 +2259,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ199"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A187" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C193" activeCellId="0" sqref="C193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2724,7 +2740,7 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -3004,7 +3020,7 @@
       <c r="B22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -3284,7 +3300,7 @@
       <c r="B30" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3564,7 +3580,7 @@
       <c r="B38" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3783,22 +3799,22 @@
       <c r="E44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="G44" s="7" t="s">
+      <c r="G44" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="H44" s="7" t="s">
+      <c r="H44" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="K44" s="8" t="s">
         <v>213</v>
       </c>
     </row>
@@ -3818,22 +3834,22 @@
       <c r="E45" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="H45" s="7" t="s">
+      <c r="H45" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="I45" s="7" t="s">
+      <c r="I45" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="K45" s="7" t="s">
+      <c r="K45" s="8" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3844,7 +3860,7 @@
       <c r="B46" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="6" t="s">
@@ -3853,22 +3869,22 @@
       <c r="E46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="G46" s="7" t="s">
+      <c r="G46" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H46" s="7" t="s">
+      <c r="H46" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="I46" s="7" t="s">
+      <c r="I46" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="K46" s="8" t="s">
         <v>211</v>
       </c>
     </row>
@@ -3888,22 +3904,22 @@
       <c r="E47" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G47" s="7" t="n">
+      <c r="G47" s="8" t="n">
         <v>1895</v>
       </c>
-      <c r="H47" s="7" t="n">
+      <c r="H47" s="8" t="n">
         <v>1879</v>
       </c>
-      <c r="I47" s="7" t="n">
+      <c r="I47" s="8" t="n">
         <v>1913</v>
       </c>
-      <c r="J47" s="7" t="n">
+      <c r="J47" s="8" t="n">
         <v>1902</v>
       </c>
-      <c r="K47" s="7" t="n">
+      <c r="K47" s="8" t="n">
         <v>1913</v>
       </c>
     </row>
@@ -3923,22 +3939,22 @@
       <c r="E48" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G48" s="7" t="s">
+      <c r="G48" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="H48" s="7" t="s">
+      <c r="H48" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="I48" s="7" t="s">
+      <c r="I48" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="K48" s="7" t="s">
+      <c r="K48" s="8" t="s">
         <v>233</v>
       </c>
     </row>
@@ -3958,22 +3974,22 @@
       <c r="E49" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="H49" s="7" t="s">
+      <c r="H49" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I49" s="7" t="s">
+      <c r="I49" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="K49" s="8" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3993,22 +4009,22 @@
       <c r="E50" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="I50" s="7" t="s">
+      <c r="I50" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="K50" s="8" t="s">
         <v>240</v>
       </c>
     </row>
@@ -4028,22 +4044,22 @@
       <c r="E51" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="H51" s="7" t="s">
+      <c r="H51" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="I51" s="7" t="s">
+      <c r="I51" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="K51" s="7" t="s">
+      <c r="K51" s="8" t="s">
         <v>243</v>
       </c>
     </row>
@@ -4063,22 +4079,22 @@
       <c r="E52" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="K52" s="7" t="s">
+      <c r="K52" s="8" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4098,22 +4114,22 @@
       <c r="E53" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="H53" s="7" t="s">
+      <c r="H53" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="8" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4124,7 +4140,7 @@
       <c r="B54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -4133,22 +4149,22 @@
       <c r="E54" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="G54" s="7" t="s">
+      <c r="G54" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="H54" s="7" t="s">
+      <c r="H54" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K54" s="8" t="s">
         <v>254</v>
       </c>
     </row>
@@ -4168,22 +4184,22 @@
       <c r="E55" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="H55" s="7" t="s">
+      <c r="H55" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="I55" s="7" t="s">
+      <c r="I55" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="K55" s="8" t="s">
         <v>257</v>
       </c>
     </row>
@@ -4203,22 +4219,22 @@
       <c r="E56" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="H56" s="7" t="s">
+      <c r="H56" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="I56" s="7" t="s">
+      <c r="I56" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="K56" s="7" t="s">
+      <c r="K56" s="8" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4238,22 +4254,22 @@
       <c r="E57" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="H57" s="7" t="s">
+      <c r="H57" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="I57" s="7" t="s">
+      <c r="I57" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="K57" s="7" t="s">
+      <c r="K57" s="8" t="s">
         <v>269</v>
       </c>
     </row>
@@ -4273,22 +4289,22 @@
       <c r="E58" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H58" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I58" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="K58" s="7" t="s">
+      <c r="K58" s="8" t="s">
         <v>272</v>
       </c>
     </row>
@@ -4308,22 +4324,22 @@
       <c r="E59" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="H59" s="7" t="s">
+      <c r="H59" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="I59" s="7" t="s">
+      <c r="I59" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="K59" s="7" t="s">
+      <c r="K59" s="8" t="s">
         <v>277</v>
       </c>
     </row>
@@ -4343,22 +4359,22 @@
       <c r="E60" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="G60" s="7" t="s">
+      <c r="G60" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="H60" s="7" t="s">
+      <c r="H60" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="I60" s="7" t="s">
+      <c r="I60" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="K60" s="7" t="s">
+      <c r="K60" s="8" t="s">
         <v>281</v>
       </c>
     </row>
@@ -4378,22 +4394,22 @@
       <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="H61" s="7" t="s">
+      <c r="H61" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="I61" s="7" t="s">
+      <c r="I61" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="K61" s="7" t="s">
+      <c r="K61" s="8" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4404,7 +4420,7 @@
       <c r="B62" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -4413,22 +4429,22 @@
       <c r="E62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="H62" s="7" t="s">
+      <c r="H62" s="8" t="s">
         <v>288</v>
       </c>
-      <c r="I62" s="7" t="s">
+      <c r="I62" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="K62" s="7" t="s">
+      <c r="K62" s="8" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4448,22 +4464,22 @@
       <c r="E63" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="H63" s="7" t="s">
+      <c r="H63" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="I63" s="7" t="s">
+      <c r="I63" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="J63" s="7" t="s">
+      <c r="J63" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="K63" s="7" t="s">
+      <c r="K63" s="8" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4483,22 +4499,22 @@
       <c r="E64" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="I64" s="7" t="s">
+      <c r="I64" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="K64" s="7" t="s">
+      <c r="K64" s="8" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4518,22 +4534,22 @@
       <c r="E65" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="G65" s="7" t="s">
+      <c r="G65" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="H65" s="7" t="s">
+      <c r="H65" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="I65" s="7" t="s">
+      <c r="I65" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="K65" s="7" t="s">
+      <c r="K65" s="8" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4553,22 +4569,22 @@
       <c r="E66" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="H66" s="7" t="s">
+      <c r="H66" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="I66" s="7" t="s">
+      <c r="I66" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="K66" s="7" t="s">
+      <c r="K66" s="8" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4588,22 +4604,22 @@
       <c r="E67" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="G67" s="7" t="s">
+      <c r="G67" s="8" t="s">
         <v>312</v>
       </c>
-      <c r="H67" s="7" t="s">
+      <c r="H67" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="I67" s="7" t="s">
+      <c r="I67" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="J67" s="7" t="s">
+      <c r="J67" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="K67" s="7" t="s">
+      <c r="K67" s="8" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4623,22 +4639,22 @@
       <c r="E68" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="G68" s="7" t="s">
+      <c r="G68" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="H68" s="7" t="s">
+      <c r="H68" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="I68" s="7" t="s">
+      <c r="I68" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="J68" s="7" t="s">
+      <c r="J68" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="K68" s="7" t="s">
+      <c r="K68" s="8" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4658,22 +4674,22 @@
       <c r="E69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="H69" s="7" t="s">
+      <c r="H69" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="I69" s="7" t="s">
+      <c r="I69" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="J69" s="7" t="s">
+      <c r="J69" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="K69" s="7" t="s">
+      <c r="K69" s="8" t="s">
         <v>322</v>
       </c>
     </row>
@@ -4684,7 +4700,7 @@
       <c r="B70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="C70" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D70" s="6" t="s">
@@ -4693,22 +4709,22 @@
       <c r="E70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="G70" s="7" t="s">
+      <c r="G70" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="H70" s="7" t="s">
+      <c r="H70" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="I70" s="7" t="s">
+      <c r="I70" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="K70" s="7" t="s">
+      <c r="K70" s="8" t="s">
         <v>327</v>
       </c>
     </row>
@@ -4728,22 +4744,22 @@
       <c r="E71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="G71" s="7" t="s">
+      <c r="G71" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="H71" s="7" t="s">
+      <c r="H71" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="I71" s="7" t="s">
+      <c r="I71" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="J71" s="7" t="s">
+      <c r="J71" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="K71" s="7" t="s">
+      <c r="K71" s="8" t="s">
         <v>330</v>
       </c>
     </row>
@@ -4780,22 +4796,22 @@
       <c r="E73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="G73" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="H73" s="7" t="s">
+      <c r="H73" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="I73" s="7" t="s">
+      <c r="I73" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="K73" s="7" t="s">
+      <c r="K73" s="8" t="s">
         <v>339</v>
       </c>
     </row>
@@ -4815,22 +4831,22 @@
       <c r="E74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="G74" s="7" t="s">
+      <c r="G74" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="I74" s="7" t="s">
+      <c r="I74" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="K74" s="7" t="s">
+      <c r="K74" s="8" t="s">
         <v>344</v>
       </c>
     </row>
@@ -4850,22 +4866,22 @@
       <c r="E75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="G75" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="H75" s="7" t="s">
+      <c r="H75" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="I75" s="7" t="s">
+      <c r="I75" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="K75" s="7" t="s">
+      <c r="K75" s="8" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4885,22 +4901,22 @@
       <c r="E76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="G76" s="7" t="s">
+      <c r="G76" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="H76" s="7" t="s">
+      <c r="H76" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="I76" s="7" t="s">
+      <c r="I76" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="K76" s="7" t="s">
+      <c r="K76" s="8" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4920,22 +4936,22 @@
       <c r="E77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="G77" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="H77" s="7" t="s">
+      <c r="H77" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="I77" s="7" t="s">
+      <c r="I77" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="J77" s="7" t="s">
+      <c r="J77" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="K77" s="7" t="s">
+      <c r="K77" s="8" t="s">
         <v>358</v>
       </c>
     </row>
@@ -4946,7 +4962,7 @@
       <c r="B78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C78" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -4955,22 +4971,22 @@
       <c r="E78" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="H78" s="7" t="s">
+      <c r="H78" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="I78" s="7" t="s">
+      <c r="I78" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="J78" s="7" t="s">
+      <c r="J78" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="K78" s="7" t="s">
+      <c r="K78" s="8" t="s">
         <v>361</v>
       </c>
     </row>
@@ -4990,22 +5006,22 @@
       <c r="E79" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="H79" s="7" t="s">
+      <c r="H79" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="I79" s="7" t="s">
+      <c r="I79" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="J79" s="7" t="s">
+      <c r="J79" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="K79" s="7" t="s">
+      <c r="K79" s="8" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5025,22 +5041,22 @@
       <c r="E80" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="H80" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="I80" s="7" t="s">
+      <c r="I80" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="J80" s="7" t="s">
+      <c r="J80" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="K80" s="7" t="s">
+      <c r="K80" s="8" t="s">
         <v>372</v>
       </c>
     </row>
@@ -5060,22 +5076,22 @@
       <c r="E81" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="G81" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="H81" s="7" t="s">
+      <c r="H81" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="I81" s="7" t="s">
+      <c r="I81" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="J81" s="7" t="s">
+      <c r="J81" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="K81" s="7" t="s">
+      <c r="K81" s="8" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5095,22 +5111,22 @@
       <c r="E82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G82" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H82" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I82" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="J82" s="7" t="s">
+      <c r="J82" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="K82" s="7" t="s">
+      <c r="K82" s="8" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5130,22 +5146,22 @@
       <c r="E83" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="G83" s="7" t="s">
+      <c r="G83" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="H83" s="7" t="s">
+      <c r="H83" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="I83" s="7" t="s">
+      <c r="I83" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="J83" s="7" t="s">
+      <c r="J83" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="K83" s="7" t="s">
+      <c r="K83" s="8" t="s">
         <v>389</v>
       </c>
     </row>
@@ -5165,22 +5181,22 @@
       <c r="E84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="H84" s="7" t="s">
+      <c r="H84" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="I84" s="7" t="s">
+      <c r="I84" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="J84" s="7" t="s">
+      <c r="J84" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="K84" s="7" t="s">
+      <c r="K84" s="8" t="s">
         <v>395</v>
       </c>
     </row>
@@ -5200,22 +5216,22 @@
       <c r="E85" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="G85" s="7" t="s">
+      <c r="G85" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="H85" s="7" t="s">
+      <c r="H85" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="I85" s="7" t="s">
+      <c r="I85" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="K85" s="7" t="s">
+      <c r="K85" s="8" t="s">
         <v>400</v>
       </c>
     </row>
@@ -5226,7 +5242,7 @@
       <c r="B86" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="C86" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D86" s="1" t="s">
@@ -5235,22 +5251,22 @@
       <c r="E86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="G86" s="7" t="s">
+      <c r="G86" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="H86" s="7" t="s">
+      <c r="H86" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="I86" s="7" t="s">
+      <c r="I86" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="K86" s="7" t="s">
+      <c r="K86" s="8" t="s">
         <v>406</v>
       </c>
     </row>
@@ -5270,22 +5286,22 @@
       <c r="E87" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="G87" s="7" t="s">
+      <c r="G87" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="H87" s="7" t="s">
+      <c r="H87" s="8" t="s">
         <v>408</v>
       </c>
-      <c r="I87" s="7" t="s">
+      <c r="I87" s="8" t="s">
         <v>409</v>
       </c>
-      <c r="J87" s="7" t="s">
+      <c r="J87" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="K87" s="7" t="s">
+      <c r="K87" s="8" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5305,22 +5321,22 @@
       <c r="E88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="H88" s="7" t="s">
+      <c r="H88" s="8" t="s">
         <v>412</v>
       </c>
-      <c r="I88" s="7" t="s">
+      <c r="I88" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="K88" s="7" t="s">
+      <c r="K88" s="8" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5340,22 +5356,22 @@
       <c r="E89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="G89" s="7" t="s">
+      <c r="G89" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="H89" s="7" t="s">
+      <c r="H89" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="I89" s="7" t="s">
+      <c r="I89" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="K89" s="7" t="s">
+      <c r="K89" s="8" t="s">
         <v>361</v>
       </c>
     </row>
@@ -5375,22 +5391,22 @@
       <c r="E90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G90" s="7" t="s">
+      <c r="G90" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="H90" s="7" t="s">
+      <c r="H90" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="I90" s="7" t="s">
+      <c r="I90" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="J90" s="7" t="s">
+      <c r="J90" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="K90" s="7" t="s">
+      <c r="K90" s="8" t="s">
         <v>368</v>
       </c>
     </row>
@@ -5410,22 +5426,22 @@
       <c r="E91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G91" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="H91" s="7" t="s">
+      <c r="H91" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="I91" s="7" t="s">
+      <c r="I91" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="J91" s="7" t="s">
+      <c r="J91" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="K91" s="7" t="s">
+      <c r="K91" s="8" t="s">
         <v>372</v>
       </c>
     </row>
@@ -5445,22 +5461,22 @@
       <c r="E92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="H92" s="7" t="s">
+      <c r="H92" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I92" s="7" t="s">
+      <c r="I92" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="J92" s="7" t="s">
+      <c r="J92" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="K92" s="7" t="s">
+      <c r="K92" s="8" t="s">
         <v>34</v>
       </c>
     </row>
@@ -5480,22 +5496,22 @@
       <c r="E93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G93" s="8" t="s">
         <v>418</v>
       </c>
-      <c r="H93" s="7" t="s">
+      <c r="H93" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="I93" s="7" t="s">
+      <c r="I93" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="K93" s="7" t="s">
+      <c r="K93" s="8" t="s">
         <v>420</v>
       </c>
     </row>
@@ -5506,7 +5522,7 @@
       <c r="B94" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="C94" s="7" t="s">
         <v>38</v>
       </c>
       <c r="D94" s="6" t="s">
@@ -5515,7 +5531,7 @@
       <c r="E94" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="8" t="s">
         <v>422</v>
       </c>
       <c r="G94" s="1" t="s">
@@ -5550,22 +5566,22 @@
       <c r="E95" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G95" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="H95" s="7" t="s">
+      <c r="H95" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="I95" s="7" t="s">
+      <c r="I95" s="8" t="s">
         <v>430</v>
       </c>
       <c r="J95" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="K95" s="7" t="s">
+      <c r="K95" s="8" t="s">
         <v>428</v>
       </c>
     </row>
@@ -5585,22 +5601,22 @@
       <c r="E96" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="8" t="s">
         <v>432</v>
       </c>
-      <c r="G96" s="7" t="s">
+      <c r="G96" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="H96" s="7" t="s">
+      <c r="H96" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="I96" s="7" t="s">
+      <c r="I96" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="J96" s="7" t="s">
+      <c r="J96" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="K96" s="7" t="s">
+      <c r="K96" s="8" t="s">
         <v>435</v>
       </c>
     </row>
@@ -5620,22 +5636,22 @@
       <c r="E97" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="G97" s="7" t="s">
+      <c r="G97" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="H97" s="7" t="s">
+      <c r="H97" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="I97" s="7" t="s">
+      <c r="I97" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="J97" s="7" t="s">
+      <c r="J97" s="8" t="s">
         <v>437</v>
       </c>
-      <c r="K97" s="7" t="s">
+      <c r="K97" s="8" t="s">
         <v>437</v>
       </c>
     </row>
@@ -5655,22 +5671,22 @@
       <c r="E98" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="8" t="s">
         <v>438</v>
       </c>
-      <c r="G98" s="7" t="s">
+      <c r="G98" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="H98" s="7" t="s">
+      <c r="H98" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="I98" s="7" t="s">
+      <c r="I98" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="J98" s="7" t="s">
+      <c r="J98" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="K98" s="7" t="s">
+      <c r="K98" s="8" t="s">
         <v>439</v>
       </c>
     </row>
@@ -5690,22 +5706,22 @@
       <c r="E99" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="G99" s="7" t="s">
+      <c r="G99" s="8" t="s">
         <v>433</v>
       </c>
-      <c r="H99" s="7" t="s">
+      <c r="H99" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="I99" s="7" t="s">
+      <c r="I99" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="J99" s="7" t="s">
+      <c r="J99" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="K99" s="7" t="s">
+      <c r="K99" s="8" t="s">
         <v>434</v>
       </c>
     </row>
@@ -5725,3475 +5741,3475 @@
       <c r="E100" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="8" t="s">
         <v>441</v>
       </c>
-      <c r="G100" s="7" t="s">
+      <c r="G100" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="H100" s="7" t="s">
+      <c r="H100" s="8" t="s">
         <v>443</v>
       </c>
-      <c r="I100" s="7" t="s">
+      <c r="I100" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="J100" s="7" t="s">
+      <c r="J100" s="8" t="s">
         <v>445</v>
       </c>
-      <c r="K100" s="7" t="s">
+      <c r="K100" s="8" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B101" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C101" s="9" t="s">
+      <c r="A101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B101" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C101" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E101" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" s="9" t="s">
+      <c r="E101" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="G101" s="9" t="s">
+      <c r="G101" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="H101" s="9" t="s">
+      <c r="H101" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="I101" s="9" t="s">
+      <c r="I101" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="J101" s="9" t="s">
+      <c r="J101" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="K101" s="9" t="s">
+      <c r="K101" s="10" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B102" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C102" s="9" t="s">
+      <c r="A102" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C102" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D102" s="9" t="s">
+      <c r="D102" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E102" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F102" s="9" t="s">
+      <c r="E102" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F102" s="10" t="s">
         <v>454</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="G102" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="H102" s="9" t="s">
+      <c r="H102" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="I102" s="9" t="s">
+      <c r="I102" s="10" t="s">
         <v>457</v>
       </c>
-      <c r="J102" s="9" t="s">
+      <c r="J102" s="10" t="s">
         <v>458</v>
       </c>
-      <c r="K102" s="9" t="s">
+      <c r="K102" s="10" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B103" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C103" s="9" t="s">
+      <c r="A103" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B103" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C103" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="9" t="s">
+      <c r="D103" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E103" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F103" s="9" t="s">
+      <c r="E103" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F103" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="G103" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H103" s="9" t="s">
+      <c r="H103" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="I103" s="9" t="s">
+      <c r="I103" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="J103" s="9" t="s">
+      <c r="J103" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="K103" s="9" t="s">
+      <c r="K103" s="10" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C104" s="9" t="s">
+      <c r="A104" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B104" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C104" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E104" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F104" s="9" t="s">
+      <c r="E104" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F104" s="10" t="s">
         <v>464</v>
       </c>
-      <c r="G104" s="9" t="s">
+      <c r="G104" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H104" s="9" t="s">
+      <c r="H104" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I104" s="9" t="s">
+      <c r="I104" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="J104" s="9" t="s">
+      <c r="J104" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="K104" s="9" t="s">
+      <c r="K104" s="10" t="s">
         <v>451</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B105" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C105" s="9" t="s">
+      <c r="A105" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C105" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D105" s="9" t="s">
+      <c r="D105" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F105" s="9" t="s">
+      <c r="E105" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F105" s="10" t="s">
         <v>468</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="G105" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="H105" s="9" t="s">
+      <c r="H105" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I105" s="9" t="s">
+      <c r="I105" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="J105" s="9" t="s">
+      <c r="J105" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="K105" s="9" t="s">
+      <c r="K105" s="10" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B106" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C106" s="9" t="s">
+      <c r="A106" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B106" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C106" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D106" s="9" t="s">
+      <c r="D106" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E106" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F106" s="9" t="s">
+      <c r="E106" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="10" t="s">
         <v>472</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="G106" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="H106" s="9" t="s">
+      <c r="H106" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I106" s="9" t="s">
+      <c r="I106" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="J106" s="9" t="s">
+      <c r="J106" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="K106" s="9" t="s">
+      <c r="K106" s="10" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C107" s="9" t="s">
+      <c r="A107" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D107" s="9" t="s">
+      <c r="D107" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E107" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F107" s="9" t="s">
+      <c r="E107" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="G107" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H107" s="9" t="s">
+      <c r="H107" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I107" s="9" t="s">
+      <c r="I107" s="10" t="s">
         <v>475</v>
       </c>
-      <c r="J107" s="9" t="s">
+      <c r="J107" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="K107" s="9" t="s">
+      <c r="K107" s="10" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B108" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C108" s="9" t="s">
+      <c r="A108" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B108" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D108" s="9" t="s">
+      <c r="D108" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E108" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F108" s="9" t="s">
+      <c r="E108" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F108" s="10" t="s">
         <v>476</v>
       </c>
-      <c r="G108" s="9" t="s">
+      <c r="G108" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H108" s="9" t="s">
+      <c r="H108" s="10" t="s">
         <v>477</v>
       </c>
-      <c r="I108" s="9" t="s">
+      <c r="I108" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="J108" s="9" t="s">
+      <c r="J108" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="K108" s="9" t="s">
+      <c r="K108" s="10" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B109" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C109" s="9" t="s">
+      <c r="A109" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C109" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D109" s="9" t="s">
+      <c r="D109" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E109" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F109" s="9" t="s">
+      <c r="E109" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="G109" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H109" s="9" t="s">
+      <c r="H109" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="I109" s="9" t="s">
+      <c r="I109" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="J109" s="9" t="s">
+      <c r="J109" s="10" t="s">
         <v>480</v>
       </c>
-      <c r="K109" s="9" t="s">
+      <c r="K109" s="10" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B110" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C110" s="9" t="s">
+      <c r="A110" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C110" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E110" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F110" s="9" t="s">
+      <c r="E110" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F110" s="10" t="s">
         <v>481</v>
       </c>
-      <c r="G110" s="9" t="s">
+      <c r="G110" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H110" s="9" t="s">
+      <c r="H110" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="I110" s="9" t="s">
+      <c r="I110" s="10" t="s">
         <v>482</v>
       </c>
-      <c r="J110" s="9" t="s">
+      <c r="J110" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="K110" s="9" t="s">
+      <c r="K110" s="10" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B111" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C111" s="9" t="s">
+      <c r="A111" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D111" s="9" t="s">
+      <c r="D111" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E111" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F111" s="9" t="s">
+      <c r="E111" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="10" t="s">
         <v>483</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="G111" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H111" s="9" t="s">
+      <c r="H111" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="I111" s="9" t="s">
+      <c r="I111" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J111" s="9" t="s">
+      <c r="J111" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="K111" s="9" t="s">
+      <c r="K111" s="10" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B112" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C112" s="9" t="s">
+      <c r="A112" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C112" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D112" s="9" t="s">
+      <c r="D112" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E112" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F112" s="9" t="s">
+      <c r="E112" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F112" s="10" t="s">
         <v>485</v>
       </c>
-      <c r="G112" s="9" t="s">
+      <c r="G112" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="H112" s="9" t="s">
+      <c r="H112" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="I112" s="9" t="s">
+      <c r="I112" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J112" s="9" t="s">
+      <c r="J112" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="K112" s="9" t="s">
+      <c r="K112" s="10" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B113" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C113" s="9" t="s">
+      <c r="A113" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C113" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E113" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F113" s="9" t="s">
+      <c r="E113" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F113" s="10" t="s">
         <v>486</v>
       </c>
-      <c r="G113" s="9" t="s">
+      <c r="G113" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H113" s="9" t="s">
+      <c r="H113" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="I113" s="9" t="s">
+      <c r="I113" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J113" s="9" t="s">
+      <c r="J113" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="K113" s="9" t="s">
+      <c r="K113" s="10" t="s">
         <v>449</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B114" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C114" s="9" t="s">
+      <c r="A114" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C114" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D114" s="9" t="s">
+      <c r="D114" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E114" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F114" s="9" t="s">
+      <c r="E114" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F114" s="10" t="s">
         <v>487</v>
       </c>
-      <c r="G114" s="9" t="s">
+      <c r="G114" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H114" s="9" t="s">
+      <c r="H114" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I114" s="9" t="s">
+      <c r="I114" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="J114" s="9" t="s">
+      <c r="J114" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="K114" s="9" t="s">
+      <c r="K114" s="10" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B115" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C115" s="9" t="s">
+      <c r="A115" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C115" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D115" s="9" t="s">
+      <c r="D115" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E115" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F115" s="9" t="s">
+      <c r="E115" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F115" s="10" t="s">
         <v>489</v>
       </c>
-      <c r="G115" s="9" t="s">
+      <c r="G115" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H115" s="9" t="s">
+      <c r="H115" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="I115" s="9" t="s">
+      <c r="I115" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="J115" s="9" t="s">
+      <c r="J115" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="K115" s="9" t="s">
+      <c r="K115" s="10" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B116" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C116" s="9" t="s">
+      <c r="A116" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E116" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F116" s="9" t="s">
+      <c r="E116" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F116" s="10" t="s">
         <v>490</v>
       </c>
-      <c r="G116" s="9" t="s">
+      <c r="G116" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H116" s="9" t="s">
+      <c r="H116" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I116" s="9" t="s">
+      <c r="I116" s="10" t="s">
         <v>491</v>
       </c>
-      <c r="J116" s="9" t="s">
+      <c r="J116" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="K116" s="9" t="s">
+      <c r="K116" s="10" t="s">
         <v>491</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C117" s="9" t="s">
+      <c r="A117" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C117" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E117" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F117" s="9" t="s">
+      <c r="E117" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>492</v>
       </c>
-      <c r="G117" s="9" t="s">
+      <c r="G117" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H117" s="9" t="s">
+      <c r="H117" s="10" t="s">
         <v>493</v>
       </c>
-      <c r="I117" s="9" t="s">
+      <c r="I117" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="J117" s="9" t="s">
+      <c r="J117" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="K117" s="9" t="s">
+      <c r="K117" s="10" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C118" s="9" t="s">
+      <c r="A118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E118" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F118" s="9" t="s">
+      <c r="E118" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F118" s="10" t="s">
         <v>494</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="G118" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H118" s="9" t="n">
+      <c r="H118" s="10" t="n">
         <v>24</v>
       </c>
-      <c r="I118" s="9" t="s">
+      <c r="I118" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="J118" s="9" t="s">
+      <c r="J118" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="K118" s="9" t="n">
+      <c r="K118" s="10" t="n">
         <v>24</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B119" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C119" s="9" t="s">
+      <c r="A119" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C119" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E119" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F119" s="9" t="s">
+      <c r="E119" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>495</v>
       </c>
-      <c r="G119" s="9" t="s">
+      <c r="G119" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H119" s="9" t="s">
+      <c r="H119" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="I119" s="9" t="s">
+      <c r="I119" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="J119" s="9" t="s">
+      <c r="J119" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="K119" s="9" t="s">
+      <c r="K119" s="10" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B120" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C120" s="9" t="s">
+      <c r="A120" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C120" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D120" s="9" t="s">
+      <c r="D120" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E120" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120" s="9" t="s">
+      <c r="E120" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F120" s="10" t="s">
         <v>497</v>
       </c>
-      <c r="G120" s="9" t="s">
+      <c r="G120" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H120" s="9" t="s">
+      <c r="H120" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="I120" s="9" t="s">
+      <c r="I120" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="J120" s="9" t="s">
+      <c r="J120" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="K120" s="9" t="s">
+      <c r="K120" s="10" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C121" s="9" t="s">
+      <c r="A121" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D121" s="9" t="s">
+      <c r="D121" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E121" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="9" t="s">
+      <c r="E121" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="G121" s="9" t="s">
+      <c r="G121" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="H121" s="9" t="s">
+      <c r="H121" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="I121" s="9" t="s">
+      <c r="I121" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="J121" s="9" t="s">
+      <c r="J121" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="K121" s="9" t="s">
+      <c r="K121" s="10" t="s">
         <v>500</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B122" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C122" s="9" t="s">
+      <c r="A122" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="D122" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E122" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F122" s="9" t="s">
+      <c r="E122" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F122" s="10" t="s">
         <v>503</v>
       </c>
-      <c r="G122" s="9" t="s">
+      <c r="G122" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H122" s="9" t="s">
+      <c r="H122" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="I122" s="9" t="s">
+      <c r="I122" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="J122" s="9" t="s">
+      <c r="J122" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="K122" s="9" t="s">
+      <c r="K122" s="10" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C123" s="9" t="s">
+      <c r="A123" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C123" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D123" s="9" t="s">
+      <c r="D123" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E123" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F123" s="9" t="s">
+      <c r="E123" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="10" t="s">
         <v>505</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="H123" s="9" t="s">
+      <c r="H123" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I123" s="9" t="s">
+      <c r="I123" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="J123" s="9" t="s">
+      <c r="J123" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="K123" s="9" t="s">
+      <c r="K123" s="10" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B124" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C124" s="9" t="s">
+      <c r="A124" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C124" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D124" s="9" t="s">
+      <c r="D124" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E124" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F124" s="9" t="s">
+      <c r="E124" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124" s="10" t="s">
         <v>508</v>
       </c>
-      <c r="G124" s="9" t="s">
+      <c r="G124" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="H124" s="9" t="s">
+      <c r="H124" s="10" t="s">
         <v>507</v>
       </c>
-      <c r="I124" s="9" t="s">
+      <c r="I124" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="J124" s="9" t="s">
+      <c r="J124" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="K124" s="9" t="s">
+      <c r="K124" s="10" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C125" s="9" t="s">
+      <c r="A125" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C125" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D125" s="9" t="s">
+      <c r="D125" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E125" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F125" s="9" t="s">
+      <c r="E125" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="10" t="s">
         <v>510</v>
       </c>
-      <c r="G125" s="9" t="s">
+      <c r="G125" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="H125" s="9" t="s">
+      <c r="H125" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I125" s="9" t="s">
+      <c r="I125" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="J125" s="9" t="s">
+      <c r="J125" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="K125" s="9" t="s">
+      <c r="K125" s="10" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C126" s="9" t="s">
+      <c r="A126" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C126" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D126" s="9" t="s">
+      <c r="D126" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E126" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F126" s="9" t="s">
+      <c r="E126" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F126" s="10" t="s">
         <v>512</v>
       </c>
-      <c r="G126" s="9" t="s">
+      <c r="G126" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="H126" s="9" t="s">
+      <c r="H126" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="I126" s="9" t="s">
+      <c r="I126" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="J126" s="9" t="s">
+      <c r="J126" s="10" t="s">
         <v>514</v>
       </c>
-      <c r="K126" s="9" t="s">
+      <c r="K126" s="10" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B127" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C127" s="9" t="s">
+      <c r="A127" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C127" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D127" s="9" t="s">
+      <c r="D127" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E127" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F127" s="9" t="s">
+      <c r="E127" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="10" t="s">
         <v>515</v>
       </c>
-      <c r="G127" s="9" t="s">
+      <c r="G127" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H127" s="9" t="s">
+      <c r="H127" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="I127" s="9" t="s">
+      <c r="I127" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="J127" s="9" t="s">
+      <c r="J127" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="K127" s="9" t="s">
+      <c r="K127" s="10" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C128" s="9" t="s">
+      <c r="A128" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C128" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D128" s="9" t="s">
+      <c r="D128" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E128" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F128" s="9" t="s">
+      <c r="E128" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F128" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="G128" s="9" t="s">
+      <c r="G128" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="H128" s="9" t="s">
+      <c r="H128" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="I128" s="9" t="s">
+      <c r="I128" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="J128" s="9" t="s">
+      <c r="J128" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="K128" s="9" t="s">
+      <c r="K128" s="10" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C129" s="9" t="s">
+      <c r="A129" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C129" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D129" s="9" t="s">
+      <c r="D129" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E129" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F129" s="9" t="s">
+      <c r="E129" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="G129" s="9" t="s">
+      <c r="G129" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="H129" s="9" t="s">
+      <c r="H129" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="I129" s="9" t="s">
+      <c r="I129" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="J129" s="9" t="s">
+      <c r="J129" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="K129" s="9" t="s">
+      <c r="K129" s="10" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C130" s="9" t="s">
+      <c r="A130" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C130" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D130" s="9" t="s">
+      <c r="D130" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E130" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F130" s="9" t="s">
+      <c r="E130" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F130" s="10" t="s">
         <v>519</v>
       </c>
-      <c r="G130" s="9" t="s">
+      <c r="G130" s="10" t="s">
         <v>520</v>
       </c>
-      <c r="H130" s="9" t="s">
+      <c r="H130" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I130" s="9" t="s">
+      <c r="I130" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="J130" s="9" t="s">
+      <c r="J130" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="K130" s="9" t="s">
+      <c r="K130" s="10" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B131" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C131" s="9" t="s">
+      <c r="A131" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C131" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D131" s="9" t="s">
+      <c r="D131" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E131" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F131" s="9" t="s">
+      <c r="E131" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="10" t="s">
         <v>521</v>
       </c>
-      <c r="G131" s="9" t="s">
+      <c r="G131" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H131" s="9" t="s">
+      <c r="H131" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="I131" s="9" t="s">
+      <c r="I131" s="10" t="s">
         <v>501</v>
       </c>
-      <c r="J131" s="9" t="s">
+      <c r="J131" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="K131" s="9" t="s">
+      <c r="K131" s="10" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C132" s="9" t="s">
+      <c r="A132" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E132" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F132" s="9" t="s">
+      <c r="E132" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F132" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="G132" s="9" t="s">
+      <c r="G132" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="H132" s="9" t="s">
+      <c r="H132" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I132" s="9" t="s">
+      <c r="I132" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="J132" s="9" t="s">
+      <c r="J132" s="10" t="s">
         <v>524</v>
       </c>
-      <c r="K132" s="9" t="s">
+      <c r="K132" s="10" t="s">
         <v>525</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C133" s="9" t="s">
+      <c r="A133" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C133" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E133" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F133" s="9" t="s">
+      <c r="E133" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="10" t="s">
         <v>526</v>
       </c>
-      <c r="G133" s="9" t="s">
+      <c r="G133" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="H133" s="9" t="s">
+      <c r="H133" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="I133" s="9" t="s">
+      <c r="I133" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J133" s="9" t="s">
+      <c r="J133" s="10" t="s">
         <v>528</v>
       </c>
-      <c r="K133" s="9" t="s">
+      <c r="K133" s="10" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C134" s="9" t="s">
+      <c r="A134" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E134" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F134" s="9" t="s">
+      <c r="E134" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F134" s="10" t="s">
         <v>529</v>
       </c>
-      <c r="G134" s="10"/>
-      <c r="H134" s="9" t="s">
+      <c r="G134" s="12"/>
+      <c r="H134" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="I134" s="9" t="s">
+      <c r="I134" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="J134" s="9" t="s">
+      <c r="J134" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="K134" s="9" t="s">
+      <c r="K134" s="10" t="s">
         <v>530</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C135" s="9" t="s">
+      <c r="A135" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C135" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D135" s="9" t="s">
+      <c r="D135" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E135" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F135" s="9" t="s">
+      <c r="E135" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="10" t="s">
         <v>531</v>
       </c>
-      <c r="G135" s="9" t="s">
+      <c r="G135" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="H135" s="9" t="s">
+      <c r="H135" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I135" s="9" t="s">
+      <c r="I135" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="J135" s="9" t="s">
+      <c r="J135" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="K135" s="9" t="s">
+      <c r="K135" s="10" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C136" s="9" t="s">
+      <c r="A136" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C136" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D136" s="9" t="s">
+      <c r="D136" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E136" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F136" s="9" t="s">
+      <c r="E136" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F136" s="10" t="s">
         <v>532</v>
       </c>
-      <c r="G136" s="9" t="s">
+      <c r="G136" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H136" s="9" t="s">
+      <c r="H136" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="I136" s="10"/>
-      <c r="J136" s="9" t="s">
+      <c r="I136" s="12"/>
+      <c r="J136" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="K136" s="9" t="s">
+      <c r="K136" s="10" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C137" s="9" t="s">
+      <c r="A137" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C137" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D137" s="9" t="s">
+      <c r="D137" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E137" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F137" s="9" t="s">
+      <c r="E137" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="10" t="s">
         <v>533</v>
       </c>
-      <c r="G137" s="9" t="s">
+      <c r="G137" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="H137" s="9" t="s">
+      <c r="H137" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="I137" s="9" t="s">
+      <c r="I137" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="J137" s="9" t="s">
+      <c r="J137" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="K137" s="9" t="s">
+      <c r="K137" s="10" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C138" s="9" t="s">
+      <c r="A138" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C138" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E138" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F138" s="9" t="s">
+      <c r="E138" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F138" s="10" t="s">
         <v>534</v>
       </c>
-      <c r="G138" s="9" t="s">
+      <c r="G138" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="H138" s="9" t="s">
+      <c r="H138" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I138" s="9" t="s">
+      <c r="I138" s="10" t="s">
         <v>535</v>
       </c>
-      <c r="J138" s="9" t="s">
+      <c r="J138" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="K138" s="9" t="s">
+      <c r="K138" s="10" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C139" s="9" t="s">
+      <c r="A139" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C139" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D139" s="9" t="s">
+      <c r="D139" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E139" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F139" s="9" t="s">
+      <c r="E139" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="10" t="s">
         <v>536</v>
       </c>
-      <c r="G139" s="10"/>
-      <c r="H139" s="9" t="s">
+      <c r="G139" s="12"/>
+      <c r="H139" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="I139" s="9" t="s">
+      <c r="I139" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="J139" s="9" t="s">
+      <c r="J139" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="K139" s="9" t="s">
+      <c r="K139" s="10" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C140" s="9" t="s">
+      <c r="A140" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C140" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D140" s="9" t="s">
+      <c r="D140" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E140" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F140" s="9" t="s">
+      <c r="E140" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F140" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="G140" s="9" t="s">
+      <c r="G140" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H140" s="9" t="s">
+      <c r="H140" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="I140" s="9" t="s">
+      <c r="I140" s="10" t="s">
         <v>530</v>
       </c>
-      <c r="J140" s="9" t="s">
+      <c r="J140" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="K140" s="9" t="s">
+      <c r="K140" s="10" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C141" s="9" t="s">
+      <c r="A141" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C141" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E141" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F141" s="9" t="s">
+      <c r="E141" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F141" s="10" t="s">
         <v>540</v>
       </c>
-      <c r="G141" s="9" t="s">
+      <c r="G141" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="H141" s="9" t="s">
+      <c r="H141" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I141" s="9" t="s">
+      <c r="I141" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="J141" s="9" t="s">
+      <c r="J141" s="10" t="s">
         <v>541</v>
       </c>
-      <c r="K141" s="9" t="s">
+      <c r="K141" s="10" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C142" s="9" t="s">
+      <c r="A142" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C142" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E142" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F142" s="9" t="s">
+      <c r="E142" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="10" t="s">
         <v>542</v>
       </c>
-      <c r="G142" s="9" t="s">
+      <c r="G142" s="10" t="s">
         <v>527</v>
       </c>
-      <c r="H142" s="9" t="s">
+      <c r="H142" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="I142" s="9" t="s">
+      <c r="I142" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="J142" s="9" t="s">
+      <c r="J142" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="K142" s="9" t="s">
+      <c r="K142" s="10" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C143" s="9" t="s">
+      <c r="A143" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C143" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E143" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F143" s="9" t="s">
+      <c r="E143" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F143" s="10" t="s">
         <v>544</v>
       </c>
-      <c r="G143" s="9" t="s">
+      <c r="G143" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="H143" s="9" t="s">
+      <c r="H143" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="I143" s="9" t="s">
+      <c r="I143" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="J143" s="9" t="s">
+      <c r="J143" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="K143" s="9" t="s">
+      <c r="K143" s="10" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C144" s="9" t="s">
+      <c r="A144" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C144" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D144" s="9" t="s">
+      <c r="D144" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E144" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F144" s="9" t="s">
+      <c r="E144" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F144" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="G144" s="9" t="s">
+      <c r="G144" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="H144" s="9" t="s">
+      <c r="H144" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="I144" s="9" t="s">
+      <c r="I144" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="J144" s="9" t="s">
+      <c r="J144" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="K144" s="9" t="s">
+      <c r="K144" s="10" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C145" s="9" t="s">
+      <c r="A145" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C145" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D145" s="9" t="s">
+      <c r="D145" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E145" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145" s="9" t="s">
+      <c r="E145" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F145" s="10" t="s">
         <v>548</v>
       </c>
-      <c r="G145" s="9" t="s">
+      <c r="G145" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="H145" s="9" t="s">
+      <c r="H145" s="10" t="s">
         <v>549</v>
       </c>
-      <c r="I145" s="9" t="s">
+      <c r="I145" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="J145" s="9" t="s">
+      <c r="J145" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="K145" s="9" t="s">
+      <c r="K145" s="10" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C146" s="9" t="s">
+      <c r="A146" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C146" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E146" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F146" s="9" t="s">
+      <c r="E146" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F146" s="10" t="s">
         <v>550</v>
       </c>
-      <c r="G146" s="9" t="s">
+      <c r="G146" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H146" s="9" t="s">
+      <c r="H146" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="I146" s="9" t="s">
+      <c r="I146" s="10" t="s">
         <v>551</v>
       </c>
-      <c r="J146" s="9" t="s">
+      <c r="J146" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="K146" s="9" t="s">
+      <c r="K146" s="10" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C147" s="9" t="s">
+      <c r="A147" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D147" s="9" t="s">
+      <c r="D147" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E147" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F147" s="9" t="s">
+      <c r="E147" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F147" s="10" t="s">
         <v>552</v>
       </c>
-      <c r="G147" s="9" t="s">
+      <c r="G147" s="10" t="s">
         <v>553</v>
       </c>
-      <c r="H147" s="9" t="s">
+      <c r="H147" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="I147" s="9" t="s">
+      <c r="I147" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="J147" s="9" t="s">
+      <c r="J147" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="K147" s="9" t="s">
+      <c r="K147" s="10" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C148" s="9" t="s">
+      <c r="A148" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D148" s="9" t="s">
+      <c r="D148" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E148" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F148" s="9" t="s">
+      <c r="E148" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F148" s="10" t="s">
         <v>554</v>
       </c>
-      <c r="G148" s="9" t="s">
+      <c r="G148" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="H148" s="9" t="s">
+      <c r="H148" s="10" t="s">
         <v>556</v>
       </c>
-      <c r="I148" s="9" t="s">
+      <c r="I148" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="J148" s="9" t="s">
+      <c r="J148" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="K148" s="9" t="s">
+      <c r="K148" s="10" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C149" s="9" t="s">
+      <c r="A149" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C149" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D149" s="9" t="s">
+      <c r="D149" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E149" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F149" s="9" t="s">
+      <c r="E149" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F149" s="10" t="s">
         <v>557</v>
       </c>
-      <c r="G149" s="9" t="s">
+      <c r="G149" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H149" s="9" t="s">
+      <c r="H149" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I149" s="9" t="s">
+      <c r="I149" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="J149" s="9" t="s">
+      <c r="J149" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="K149" s="9" t="s">
+      <c r="K149" s="10" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C150" s="9" t="s">
+      <c r="A150" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D150" s="9" t="s">
+      <c r="D150" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E150" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F150" s="9" t="s">
+      <c r="E150" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F150" s="10" t="s">
         <v>560</v>
       </c>
-      <c r="G150" s="9" t="s">
+      <c r="G150" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="H150" s="9" t="s">
+      <c r="H150" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="I150" s="9" t="s">
+      <c r="I150" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="J150" s="9" t="s">
+      <c r="J150" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="K150" s="9" t="s">
+      <c r="K150" s="10" t="s">
         <v>555</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C151" s="9" t="s">
+      <c r="A151" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C151" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E151" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F151" s="9" t="s">
+      <c r="E151" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F151" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="G151" s="9" t="s">
+      <c r="G151" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="H151" s="9" t="s">
+      <c r="H151" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="I151" s="9" t="s">
+      <c r="I151" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="J151" s="9" t="s">
+      <c r="J151" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="K151" s="9" t="s">
+      <c r="K151" s="10" t="s">
         <v>562</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C152" s="9" t="s">
+      <c r="A152" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C152" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D152" s="9" t="s">
+      <c r="D152" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E152" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F152" s="9" t="s">
+      <c r="E152" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F152" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="G152" s="9" t="s">
+      <c r="G152" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="H152" s="9" t="s">
+      <c r="H152" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I152" s="9" t="s">
+      <c r="I152" s="10" t="s">
         <v>506</v>
       </c>
-      <c r="J152" s="9" t="s">
+      <c r="J152" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="K152" s="9" t="s">
+      <c r="K152" s="10" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C153" s="9" t="s">
+      <c r="A153" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C153" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D153" s="9" t="s">
+      <c r="D153" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E153" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F153" s="9" t="s">
+      <c r="E153" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F153" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="G153" s="9" t="s">
+      <c r="G153" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H153" s="9" t="s">
+      <c r="H153" s="10" t="s">
         <v>565</v>
       </c>
-      <c r="I153" s="10"/>
-      <c r="J153" s="9" t="s">
+      <c r="I153" s="12"/>
+      <c r="J153" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="K153" s="9" t="s">
+      <c r="K153" s="10" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C154" s="9" t="s">
+      <c r="A154" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C154" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D154" s="9" t="s">
+      <c r="D154" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E154" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F154" s="9" t="s">
+      <c r="E154" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F154" s="10" t="s">
         <v>566</v>
       </c>
-      <c r="G154" s="10"/>
-      <c r="H154" s="9" t="s">
+      <c r="G154" s="12"/>
+      <c r="H154" s="10" t="s">
         <v>555</v>
       </c>
-      <c r="I154" s="9" t="s">
+      <c r="I154" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="J154" s="9" t="s">
+      <c r="J154" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="K154" s="9" t="s">
+      <c r="K154" s="10" t="s">
         <v>567</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C155" s="9" t="s">
+      <c r="A155" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C155" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D155" s="9" t="s">
+      <c r="D155" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E155" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F155" s="9" t="s">
+      <c r="E155" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F155" s="10" t="s">
         <v>568</v>
       </c>
-      <c r="G155" s="9" t="s">
+      <c r="G155" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H155" s="9" t="s">
+      <c r="H155" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="I155" s="9" t="s">
+      <c r="I155" s="10" t="s">
         <v>569</v>
       </c>
-      <c r="J155" s="9" t="s">
+      <c r="J155" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="K155" s="9" t="s">
+      <c r="K155" s="10" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C156" s="9" t="s">
+      <c r="A156" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D156" s="9" t="s">
+      <c r="D156" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E156" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F156" s="9" t="s">
+      <c r="E156" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F156" s="10" t="s">
         <v>570</v>
       </c>
-      <c r="G156" s="9" t="s">
+      <c r="G156" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="H156" s="9" t="s">
+      <c r="H156" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I156" s="9" t="s">
+      <c r="I156" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="J156" s="9" t="s">
+      <c r="J156" s="10" t="s">
         <v>571</v>
       </c>
-      <c r="K156" s="9" t="s">
+      <c r="K156" s="10" t="s">
         <v>571</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C157" s="9" t="s">
+      <c r="A157" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C157" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="D157" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E157" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F157" s="9" t="s">
+      <c r="E157" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F157" s="10" t="s">
         <v>572</v>
       </c>
-      <c r="G157" s="9" t="s">
+      <c r="G157" s="10" t="s">
         <v>537</v>
       </c>
-      <c r="H157" s="9" t="s">
+      <c r="H157" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="I157" s="9" t="s">
+      <c r="I157" s="10" t="s">
         <v>558</v>
       </c>
-      <c r="J157" s="9" t="s">
+      <c r="J157" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="K157" s="9" t="s">
+      <c r="K157" s="10" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C158" s="9" t="s">
+      <c r="A158" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C158" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="D158" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E158" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F158" s="9" t="s">
+      <c r="E158" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F158" s="10" t="s">
         <v>574</v>
       </c>
-      <c r="G158" s="10"/>
-      <c r="H158" s="9" t="s">
+      <c r="G158" s="12"/>
+      <c r="H158" s="10" t="s">
         <v>575</v>
       </c>
-      <c r="I158" s="9" t="s">
+      <c r="I158" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="J158" s="9" t="s">
+      <c r="J158" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="K158" s="9" t="s">
+      <c r="K158" s="10" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C159" s="9" t="s">
+      <c r="A159" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C159" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D159" s="9" t="s">
+      <c r="D159" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E159" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F159" s="9" t="s">
+      <c r="E159" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="10" t="s">
         <v>576</v>
       </c>
-      <c r="G159" s="9" t="s">
+      <c r="G159" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H159" s="9" t="s">
+      <c r="H159" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I159" s="9" t="s">
+      <c r="I159" s="10" t="s">
         <v>577</v>
       </c>
-      <c r="J159" s="9" t="s">
+      <c r="J159" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="K159" s="9" t="s">
+      <c r="K159" s="10" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C160" s="9" t="s">
+      <c r="A160" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C160" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D160" s="9" t="s">
+      <c r="D160" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E160" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F160" s="9" t="s">
+      <c r="E160" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F160" s="10" t="s">
         <v>578</v>
       </c>
-      <c r="G160" s="9" t="s">
+      <c r="G160" s="10" t="s">
         <v>579</v>
       </c>
-      <c r="H160" s="9" t="s">
+      <c r="H160" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="I160" s="9" t="s">
+      <c r="I160" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="J160" s="9" t="s">
+      <c r="J160" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="K160" s="9" t="s">
+      <c r="K160" s="10" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C161" s="9" t="s">
+      <c r="A161" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C161" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D161" s="9" t="s">
+      <c r="D161" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E161" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F161" s="9" t="s">
+      <c r="E161" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F161" s="10" t="s">
         <v>580</v>
       </c>
-      <c r="G161" s="9" t="s">
+      <c r="G161" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H161" s="9" t="s">
+      <c r="H161" s="10" t="s">
         <v>581</v>
       </c>
-      <c r="I161" s="9" t="s">
+      <c r="I161" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="J161" s="9" t="s">
+      <c r="J161" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="K161" s="9" t="s">
+      <c r="K161" s="10" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C162" s="9" t="s">
+      <c r="A162" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C162" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D162" s="9" t="s">
+      <c r="D162" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E162" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F162" s="9" t="s">
+      <c r="E162" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F162" s="10" t="s">
         <v>582</v>
       </c>
-      <c r="G162" s="9" t="s">
+      <c r="G162" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="H162" s="9" t="s">
+      <c r="H162" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I162" s="9" t="s">
+      <c r="I162" s="10" t="s">
         <v>583</v>
       </c>
-      <c r="J162" s="9" t="s">
+      <c r="J162" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="K162" s="9" t="s">
+      <c r="K162" s="10" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C163" s="9" t="s">
+      <c r="A163" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C163" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D163" s="9" t="s">
+      <c r="D163" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E163" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F163" s="9" t="s">
+      <c r="E163" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F163" s="10" t="s">
         <v>584</v>
       </c>
-      <c r="G163" s="9" t="s">
+      <c r="G163" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H163" s="9" t="s">
+      <c r="H163" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="I163" s="9" t="s">
+      <c r="I163" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="J163" s="9" t="s">
+      <c r="J163" s="10" t="s">
         <v>585</v>
       </c>
-      <c r="K163" s="9" t="s">
+      <c r="K163" s="10" t="s">
         <v>585</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C164" s="9" t="s">
+      <c r="A164" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C164" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D164" s="9" t="s">
+      <c r="D164" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E164" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F164" s="9" t="s">
+      <c r="E164" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F164" s="10" t="s">
         <v>586</v>
       </c>
-      <c r="G164" s="9" t="s">
+      <c r="G164" s="10" t="s">
         <v>587</v>
       </c>
-      <c r="H164" s="9" t="s">
+      <c r="H164" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I164" s="9" t="s">
+      <c r="I164" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="J164" s="9" t="s">
+      <c r="J164" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="K164" s="9" t="s">
+      <c r="K164" s="10" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C165" s="9" t="s">
+      <c r="A165" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C165" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D165" s="9" t="s">
+      <c r="D165" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E165" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F165" s="9" t="s">
+      <c r="E165" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F165" s="10" t="s">
         <v>589</v>
       </c>
-      <c r="G165" s="9" t="s">
+      <c r="G165" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="H165" s="9" t="s">
+      <c r="H165" s="10" t="s">
         <v>590</v>
       </c>
-      <c r="I165" s="9" t="s">
+      <c r="I165" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J165" s="9" t="s">
+      <c r="J165" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="K165" s="9" t="s">
+      <c r="K165" s="10" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C166" s="9" t="s">
+      <c r="A166" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C166" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D166" s="9" t="s">
+      <c r="D166" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E166" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F166" s="9" t="s">
+      <c r="E166" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F166" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="G166" s="9" t="s">
+      <c r="G166" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="H166" s="9" t="s">
+      <c r="H166" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I166" s="9" t="s">
+      <c r="I166" s="10" t="s">
         <v>592</v>
       </c>
-      <c r="J166" s="9" t="s">
+      <c r="J166" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="K166" s="9" t="s">
+      <c r="K166" s="10" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C167" s="9" t="s">
+      <c r="A167" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C167" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D167" s="9" t="s">
+      <c r="D167" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E167" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F167" s="9" t="s">
+      <c r="E167" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F167" s="10" t="s">
         <v>593</v>
       </c>
-      <c r="G167" s="9" t="s">
+      <c r="G167" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H167" s="9" t="s">
+      <c r="H167" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="I167" s="9" t="s">
+      <c r="I167" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="J167" s="9" t="s">
+      <c r="J167" s="10" t="s">
         <v>573</v>
       </c>
-      <c r="K167" s="9" t="s">
+      <c r="K167" s="10" t="s">
         <v>573</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C168" s="9" t="s">
+      <c r="A168" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C168" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D168" s="9" t="s">
+      <c r="D168" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E168" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F168" s="9" t="s">
+      <c r="E168" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F168" s="10" t="s">
         <v>594</v>
       </c>
-      <c r="G168" s="9" t="s">
+      <c r="G168" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="H168" s="9" t="s">
+      <c r="H168" s="10" t="s">
         <v>513</v>
       </c>
-      <c r="I168" s="9" t="s">
+      <c r="I168" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="J168" s="9" t="s">
+      <c r="J168" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="K168" s="9" t="s">
+      <c r="K168" s="10" t="s">
         <v>513</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C169" s="9" t="s">
+      <c r="A169" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C169" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D169" s="9" t="s">
+      <c r="D169" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E169" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F169" s="9" t="s">
+      <c r="E169" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F169" s="10" t="s">
         <v>595</v>
       </c>
-      <c r="G169" s="9" t="s">
+      <c r="G169" s="10" t="s">
         <v>596</v>
       </c>
-      <c r="H169" s="9" t="s">
+      <c r="H169" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="I169" s="9" t="s">
+      <c r="I169" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="J169" s="9" t="s">
+      <c r="J169" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="K169" s="9" t="s">
+      <c r="K169" s="10" t="s">
         <v>596</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C170" s="9" t="s">
+      <c r="A170" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C170" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D170" s="9" t="s">
+      <c r="D170" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E170" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F170" s="9" t="s">
+      <c r="E170" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F170" s="10" t="s">
         <v>597</v>
       </c>
-      <c r="G170" s="9" t="s">
+      <c r="G170" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H170" s="9" t="s">
+      <c r="H170" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="I170" s="9" t="s">
+      <c r="I170" s="10" t="s">
         <v>598</v>
       </c>
-      <c r="J170" s="9" t="s">
+      <c r="J170" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="K170" s="9" t="s">
+      <c r="K170" s="10" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C171" s="9" t="s">
+      <c r="A171" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C171" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D171" s="9" t="s">
+      <c r="D171" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E171" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F171" s="9" t="s">
+      <c r="E171" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F171" s="10" t="s">
         <v>599</v>
       </c>
-      <c r="G171" s="9" t="s">
+      <c r="G171" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="H171" s="9" t="s">
+      <c r="H171" s="10" t="s">
         <v>600</v>
       </c>
-      <c r="I171" s="9" t="s">
+      <c r="I171" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="J171" s="9" t="s">
+      <c r="J171" s="10" t="s">
         <v>479</v>
       </c>
-      <c r="K171" s="9" t="s">
+      <c r="K171" s="10" t="s">
         <v>600</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C172" s="9" t="s">
+      <c r="A172" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C172" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D172" s="9" t="s">
+      <c r="D172" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E172" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F172" s="9" t="s">
+      <c r="E172" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F172" s="10" t="s">
         <v>601</v>
       </c>
-      <c r="G172" s="9" t="s">
+      <c r="G172" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="H172" s="9" t="s">
+      <c r="H172" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="I172" s="9" t="s">
+      <c r="I172" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="J172" s="9" t="s">
+      <c r="J172" s="10" t="s">
         <v>602</v>
       </c>
-      <c r="K172" s="9" t="s">
+      <c r="K172" s="10" t="s">
         <v>602</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C173" s="9" t="s">
+      <c r="A173" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C173" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D173" s="9" t="s">
+      <c r="D173" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E173" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F173" s="9" t="s">
+      <c r="E173" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F173" s="10" t="s">
         <v>603</v>
       </c>
-      <c r="G173" s="9" t="s">
+      <c r="G173" s="10" t="s">
         <v>604</v>
       </c>
-      <c r="H173" s="9" t="s">
+      <c r="H173" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="I173" s="9" t="s">
+      <c r="I173" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J173" s="9" t="s">
+      <c r="J173" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="K173" s="9" t="s">
+      <c r="K173" s="10" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C174" s="9" t="s">
+      <c r="A174" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D174" s="9" t="s">
+      <c r="D174" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E174" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F174" s="9" t="s">
+      <c r="E174" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F174" s="10" t="s">
         <v>605</v>
       </c>
-      <c r="G174" s="9" t="s">
+      <c r="G174" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="H174" s="9" t="s">
+      <c r="H174" s="10" t="s">
         <v>606</v>
       </c>
-      <c r="I174" s="9" t="s">
+      <c r="I174" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="J174" s="9" t="s">
+      <c r="J174" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="K174" s="9" t="s">
+      <c r="K174" s="10" t="s">
         <v>606</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C175" s="9" t="s">
+      <c r="A175" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C175" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D175" s="9" t="s">
+      <c r="D175" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E175" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F175" s="9" t="s">
+      <c r="E175" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F175" s="10" t="s">
         <v>607</v>
       </c>
-      <c r="G175" s="9" t="s">
+      <c r="G175" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H175" s="9" t="s">
+      <c r="H175" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="I175" s="9" t="s">
+      <c r="I175" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="J175" s="9" t="s">
+      <c r="J175" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="K175" s="9" t="s">
+      <c r="K175" s="10" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C176" s="9" t="s">
+      <c r="A176" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C176" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D176" s="9" t="s">
+      <c r="D176" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E176" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F176" s="9" t="s">
+      <c r="E176" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F176" s="10" t="s">
         <v>608</v>
       </c>
-      <c r="G176" s="9" t="s">
+      <c r="G176" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="H176" s="9" t="s">
+      <c r="H176" s="10" t="s">
         <v>610</v>
       </c>
-      <c r="I176" s="9" t="s">
+      <c r="I176" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J176" s="9" t="s">
+      <c r="J176" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="K176" s="9" t="s">
+      <c r="K176" s="10" t="s">
         <v>610</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C177" s="9" t="s">
+      <c r="A177" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C177" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D177" s="9" t="s">
+      <c r="D177" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E177" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F177" s="9" t="s">
+      <c r="E177" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" s="10" t="s">
         <v>611</v>
       </c>
-      <c r="G177" s="9" t="s">
+      <c r="G177" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="H177" s="9" t="s">
+      <c r="H177" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="I177" s="9" t="s">
+      <c r="I177" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="J177" s="9" t="s">
+      <c r="J177" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="K177" s="9" t="s">
+      <c r="K177" s="10" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C178" s="9" t="s">
+      <c r="A178" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C178" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D178" s="9" t="s">
+      <c r="D178" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E178" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F178" s="9" t="s">
+      <c r="E178" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F178" s="10" t="s">
         <v>613</v>
       </c>
-      <c r="G178" s="9" t="s">
+      <c r="G178" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H178" s="9" t="s">
+      <c r="H178" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="I178" s="9" t="s">
+      <c r="I178" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J178" s="9" t="s">
+      <c r="J178" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="K178" s="9" t="s">
+      <c r="K178" s="10" t="s">
         <v>614</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C179" s="9" t="s">
+      <c r="A179" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C179" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D179" s="9" t="s">
+      <c r="D179" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E179" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F179" s="9" t="s">
+      <c r="E179" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F179" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="G179" s="9" t="s">
+      <c r="G179" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H179" s="9" t="s">
+      <c r="H179" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="I179" s="9" t="s">
+      <c r="I179" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="J179" s="9" t="s">
+      <c r="J179" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="K179" s="9" t="s">
+      <c r="K179" s="10" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C180" s="9" t="s">
+      <c r="A180" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C180" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D180" s="9" t="s">
+      <c r="D180" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E180" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F180" s="9" t="s">
+      <c r="E180" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F180" s="10" t="s">
         <v>617</v>
       </c>
-      <c r="G180" s="9" t="s">
+      <c r="G180" s="10" t="s">
         <v>618</v>
       </c>
-      <c r="H180" s="9" t="s">
+      <c r="H180" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="I180" s="9" t="s">
+      <c r="I180" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="J180" s="9" t="s">
+      <c r="J180" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="K180" s="9" t="s">
+      <c r="K180" s="10" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C181" s="9" t="s">
+      <c r="A181" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D181" s="9" t="s">
+      <c r="D181" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E181" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F181" s="9" t="s">
+      <c r="E181" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F181" s="10" t="s">
         <v>619</v>
       </c>
-      <c r="G181" s="9" t="s">
+      <c r="G181" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="H181" s="9" t="s">
+      <c r="H181" s="10" t="s">
         <v>620</v>
       </c>
-      <c r="I181" s="9" t="s">
+      <c r="I181" s="10" t="s">
         <v>614</v>
       </c>
-      <c r="J181" s="9" t="s">
+      <c r="J181" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="K181" s="9" t="s">
+      <c r="K181" s="10" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C182" s="9" t="s">
+      <c r="A182" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C182" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D182" s="9" t="s">
+      <c r="D182" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E182" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F182" s="9" t="s">
+      <c r="E182" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F182" s="10" t="s">
         <v>622</v>
       </c>
-      <c r="G182" s="9" t="s">
+      <c r="G182" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H182" s="9" t="s">
+      <c r="H182" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="I182" s="9" t="s">
+      <c r="I182" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J182" s="9" t="s">
+      <c r="J182" s="10" t="s">
         <v>623</v>
       </c>
-      <c r="K182" s="9" t="s">
+      <c r="K182" s="10" t="s">
         <v>623</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C183" s="9" t="s">
+      <c r="A183" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C183" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D183" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E183" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F183" s="9" t="s">
+      <c r="E183" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F183" s="10" t="s">
         <v>624</v>
       </c>
-      <c r="G183" s="9" t="s">
+      <c r="G183" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="H183" s="9" t="s">
+      <c r="H183" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="I183" s="9" t="s">
+      <c r="I183" s="10" t="s">
         <v>625</v>
       </c>
-      <c r="J183" s="9" t="s">
+      <c r="J183" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="K183" s="9" t="s">
+      <c r="K183" s="10" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C184" s="9" t="s">
+      <c r="A184" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C184" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D184" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E184" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F184" s="9" t="s">
+      <c r="E184" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F184" s="10" t="s">
         <v>626</v>
       </c>
-      <c r="G184" s="9" t="s">
+      <c r="G184" s="10" t="s">
         <v>612</v>
       </c>
-      <c r="H184" s="9" t="s">
+      <c r="H184" s="10" t="s">
         <v>627</v>
       </c>
-      <c r="I184" s="9" t="s">
+      <c r="I184" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J184" s="9" t="s">
+      <c r="J184" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="K184" s="9" t="s">
+      <c r="K184" s="10" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C185" s="9" t="s">
+      <c r="A185" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C185" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D185" s="9" t="s">
+      <c r="D185" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E185" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F185" s="9" t="s">
+      <c r="E185" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F185" s="10" t="s">
         <v>628</v>
       </c>
-      <c r="G185" s="9" t="s">
+      <c r="G185" s="10" t="s">
         <v>629</v>
       </c>
-      <c r="H185" s="9" t="s">
+      <c r="H185" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="I185" s="9" t="s">
+      <c r="I185" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="J185" s="9" t="s">
+      <c r="J185" s="10" t="s">
         <v>567</v>
       </c>
-      <c r="K185" s="9" t="s">
+      <c r="K185" s="10" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C186" s="9" t="s">
+      <c r="A186" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C186" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D186" s="9" t="s">
+      <c r="D186" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E186" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F186" s="9" t="s">
+      <c r="E186" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F186" s="10" t="s">
         <v>630</v>
       </c>
-      <c r="G186" s="9" t="s">
+      <c r="G186" s="10" t="s">
         <v>631</v>
       </c>
-      <c r="H186" s="9" t="s">
+      <c r="H186" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="I186" s="9" t="s">
+      <c r="I186" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J186" s="9" t="s">
+      <c r="J186" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="K186" s="9" t="s">
+      <c r="K186" s="10" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C187" s="9" t="s">
+      <c r="A187" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C187" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D187" s="9" t="s">
+      <c r="D187" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E187" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F187" s="9" t="s">
+      <c r="E187" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F187" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="G187" s="9" t="s">
+      <c r="G187" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="H187" s="9" t="s">
+      <c r="H187" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="I187" s="9" t="s">
+      <c r="I187" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J187" s="9" t="s">
+      <c r="J187" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="K187" s="9" t="s">
+      <c r="K187" s="10" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C188" s="9" t="s">
+      <c r="A188" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C188" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D188" s="9" t="s">
+      <c r="D188" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E188" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F188" s="9" t="s">
+      <c r="E188" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F188" s="10" t="s">
         <v>634</v>
       </c>
-      <c r="G188" s="9" t="s">
+      <c r="G188" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="H188" s="9" t="s">
+      <c r="H188" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="I188" s="9" t="s">
+      <c r="I188" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="J188" s="9" t="s">
+      <c r="J188" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="K188" s="9" t="s">
+      <c r="K188" s="10" t="s">
         <v>609</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C189" s="9" t="s">
+      <c r="A189" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C189" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D189" s="9" t="s">
+      <c r="D189" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E189" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F189" s="9" t="s">
+      <c r="E189" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="G189" s="9" t="s">
+      <c r="G189" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H189" s="9" t="s">
+      <c r="H189" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="I189" s="9" t="s">
+      <c r="I189" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="J189" s="9" t="s">
+      <c r="J189" s="10" t="s">
         <v>633</v>
       </c>
-      <c r="K189" s="9" t="s">
+      <c r="K189" s="10" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C190" s="9" t="s">
+      <c r="A190" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C190" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D190" s="9" t="s">
+      <c r="D190" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E190" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F190" s="9" t="s">
+      <c r="E190" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F190" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="G190" s="9" t="s">
+      <c r="G190" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="H190" s="9" t="s">
+      <c r="H190" s="10" t="s">
         <v>639</v>
       </c>
-      <c r="I190" s="9" t="s">
+      <c r="I190" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="J190" s="9" t="s">
+      <c r="J190" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="K190" s="9" t="s">
+      <c r="K190" s="10" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C191" s="9" t="s">
+      <c r="A191" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C191" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D191" s="9" t="s">
+      <c r="D191" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E191" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F191" s="9" t="s">
+      <c r="E191" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F191" s="10" t="s">
         <v>640</v>
       </c>
-      <c r="G191" s="9" t="s">
+      <c r="G191" s="10" t="s">
         <v>641</v>
       </c>
-      <c r="H191" s="9" t="s">
+      <c r="H191" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="I191" s="9" t="s">
+      <c r="I191" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J191" s="9" t="s">
+      <c r="J191" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="K191" s="9" t="s">
+      <c r="K191" s="10" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C192" s="9" t="s">
+      <c r="A192" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C192" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D192" s="9" t="s">
+      <c r="D192" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E192" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F192" s="9" t="s">
+      <c r="E192" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" s="10" t="s">
         <v>642</v>
       </c>
-      <c r="G192" s="9" t="s">
+      <c r="G192" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H192" s="9" t="s">
+      <c r="H192" s="10" t="s">
         <v>616</v>
       </c>
-      <c r="I192" s="9" t="s">
+      <c r="I192" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J192" s="9" t="s">
+      <c r="J192" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="K192" s="9" t="s">
+      <c r="K192" s="10" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C193" s="9" t="s">
+      <c r="A193" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C193" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E193" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F193" s="9" t="s">
+      <c r="E193" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F193" s="10" t="s">
         <v>644</v>
       </c>
-      <c r="G193" s="9" t="s">
+      <c r="G193" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="H193" s="9" t="s">
+      <c r="H193" s="10" t="s">
         <v>635</v>
       </c>
-      <c r="I193" s="9" t="s">
+      <c r="I193" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="J193" s="9" t="s">
+      <c r="J193" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="K193" s="9" t="s">
+      <c r="K193" s="10" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C194" s="9" t="s">
+      <c r="A194" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B194" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C194" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E194" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F194" s="9" t="s">
+      <c r="E194" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" s="10" t="s">
         <v>645</v>
       </c>
-      <c r="G194" s="9" t="s">
+      <c r="G194" s="10" t="s">
         <v>646</v>
       </c>
-      <c r="H194" s="9" t="s">
+      <c r="H194" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="I194" s="9" t="s">
+      <c r="I194" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J194" s="9" t="s">
+      <c r="J194" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="K194" s="9" t="s">
+      <c r="K194" s="10" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C195" s="9" t="s">
+      <c r="A195" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B195" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C195" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E195" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F195" s="9" t="s">
+      <c r="E195" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F195" s="10" t="s">
         <v>647</v>
       </c>
-      <c r="G195" s="9" t="s">
+      <c r="G195" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="H195" s="9" t="s">
+      <c r="H195" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="I195" s="9" t="s">
+      <c r="I195" s="10" t="s">
         <v>648</v>
       </c>
-      <c r="J195" s="9" t="s">
+      <c r="J195" s="10" t="s">
         <v>547</v>
       </c>
-      <c r="K195" s="9" t="s">
+      <c r="K195" s="10" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C196" s="9" t="s">
+      <c r="A196" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B196" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C196" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D196" s="9" t="s">
+      <c r="D196" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E196" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F196" s="9" t="s">
+      <c r="E196" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F196" s="10" t="s">
         <v>649</v>
       </c>
-      <c r="G196" s="9" t="s">
+      <c r="G196" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="H196" s="9" t="s">
+      <c r="H196" s="10" t="s">
         <v>559</v>
       </c>
-      <c r="I196" s="9" t="s">
+      <c r="I196" s="10" t="s">
         <v>609</v>
       </c>
-      <c r="J196" s="9" t="s">
+      <c r="J196" s="10" t="s">
         <v>621</v>
       </c>
-      <c r="K196" s="9" t="s">
+      <c r="K196" s="10" t="s">
         <v>621</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C197" s="9" t="s">
+      <c r="A197" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B197" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C197" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="D197" s="9" t="s">
+      <c r="D197" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E197" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F197" s="9" t="s">
+      <c r="E197" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F197" s="10" t="s">
         <v>650</v>
       </c>
-      <c r="G197" s="9" t="s">
+      <c r="G197" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="H197" s="9" t="s">
+      <c r="H197" s="10" t="s">
         <v>636</v>
       </c>
-      <c r="I197" s="9" t="s">
+      <c r="I197" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="J197" s="9" t="s">
+      <c r="J197" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="K197" s="9" t="s">
+      <c r="K197" s="10" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C198" s="9" t="s">
+      <c r="A198" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B198" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C198" s="10" t="s">
         <v>453</v>
       </c>
-      <c r="D198" s="9" t="s">
+      <c r="D198" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E198" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F198" s="9" t="s">
+      <c r="E198" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F198" s="10" t="s">
         <v>651</v>
       </c>
-      <c r="G198" s="9" t="s">
+      <c r="G198" s="10" t="s">
         <v>652</v>
       </c>
-      <c r="H198" s="9" t="s">
+      <c r="H198" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="I198" s="9" t="s">
+      <c r="I198" s="10" t="s">
         <v>465</v>
       </c>
-      <c r="J198" s="9" t="s">
+      <c r="J198" s="10" t="s">
         <v>509</v>
       </c>
-      <c r="K198" s="9" t="s">
+      <c r="K198" s="10" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="C199" s="9" t="s">
+      <c r="A199" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B199" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C199" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D199" s="9" t="s">
+      <c r="D199" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E199" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F199" s="9" t="s">
+      <c r="E199" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F199" s="10" t="s">
         <v>653</v>
       </c>
-      <c r="G199" s="9" t="s">
+      <c r="G199" s="10" t="s">
         <v>511</v>
       </c>
-      <c r="H199" s="9" t="s">
+      <c r="H199" s="10" t="s">
         <v>654</v>
       </c>
-      <c r="I199" s="9" t="s">
+      <c r="I199" s="10" t="s">
         <v>471</v>
       </c>
-      <c r="J199" s="9" t="s">
+      <c r="J199" s="10" t="s">
         <v>588</v>
       </c>
-      <c r="K199" s="9" t="s">
+      <c r="K199" s="10" t="s">
         <v>654</v>
       </c>
     </row>

--- a/question-manager-service/assets/MoviesBasicAll.xlsx
+++ b/question-manager-service/assets/MoviesBasicAll.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2150" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2145" uniqueCount="653">
   <si>
     <t xml:space="preserve">Category</t>
   </si>
@@ -2235,10 +2235,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ199"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D186" activeCellId="0" sqref="D186:D199"/>
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4757,6 +4757,24 @@
       <c r="E72" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F72" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="J72" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
@@ -4775,22 +4793,22 @@
         <v>15</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4810,22 +4828,22 @@
         <v>15</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>336</v>
+        <v>237</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="I74" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4845,22 +4863,22 @@
         <v>15</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="I75" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4880,22 +4898,22 @@
         <v>15</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="I76" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4915,22 +4933,22 @@
         <v>15</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="I77" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4950,22 +4968,22 @@
         <v>15</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I78" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4985,22 +5003,22 @@
         <v>15</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="I79" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5020,22 +5038,22 @@
         <v>15</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="I80" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5055,22 +5073,22 @@
         <v>15</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="I81" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="J81" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K81" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5090,22 +5108,22 @@
         <v>15</v>
       </c>
       <c r="F82" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="I82" s="7" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="J82" s="7" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="K82" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5125,22 +5143,22 @@
         <v>15</v>
       </c>
       <c r="F83" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="I83" s="7" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="J83" s="7" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="K83" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5151,31 +5169,31 @@
         <v>12</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D84" s="6" t="s">
-        <v>107</v>
+        <v>392</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F84" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="I84" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="K84" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5195,22 +5213,22 @@
         <v>15</v>
       </c>
       <c r="F85" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="H85" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="I85" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="K85" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5230,22 +5248,22 @@
         <v>15</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="I86" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K86" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5265,22 +5283,22 @@
         <v>15</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="I87" s="7" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="K87" s="7" t="s">
-        <v>404</v>
+        <v>373</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5300,22 +5318,22 @@
         <v>15</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>408</v>
+        <v>357</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>409</v>
+        <v>358</v>
       </c>
       <c r="I88" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5335,22 +5353,22 @@
         <v>15</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>360</v>
+        <v>117</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5370,22 +5388,22 @@
         <v>15</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>113</v>
+        <v>365</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="H90" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="I90" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>117</v>
+        <v>369</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5405,22 +5423,22 @@
         <v>15</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>367</v>
+        <v>29</v>
       </c>
       <c r="I91" s="7" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>368</v>
+        <v>29</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5440,22 +5458,22 @@
         <v>15</v>
       </c>
       <c r="F92" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>29</v>
+        <v>416</v>
       </c>
       <c r="I92" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="K92" s="7" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5475,22 +5493,22 @@
         <v>15</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="H93" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="I93" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="K93" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5510,22 +5528,22 @@
         <v>15</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="H94" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>422</v>
+        <v>424</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H94" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>427</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K94" s="1" t="s">
-        <v>421</v>
+        <v>428</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5545,22 +5563,22 @@
         <v>15</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>426</v>
+        <v>394</v>
       </c>
       <c r="I95" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>428</v>
+        <v>397</v>
+      </c>
+      <c r="J95" s="7" t="s">
+        <v>431</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5580,22 +5598,22 @@
         <v>15</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>430</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="I96" s="7" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="K96" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5615,7 +5633,7 @@
         <v>15</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>430</v>
@@ -5627,10 +5645,10 @@
         <v>431</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5650,7 +5668,7 @@
         <v>15</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>430</v>
@@ -5665,7 +5683,7 @@
         <v>394</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5685,61 +5703,61 @@
         <v>15</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>397</v>
+        <v>440</v>
       </c>
       <c r="I99" s="7" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="G100" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="H100" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>441</v>
-      </c>
-      <c r="J100" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="K100" s="7" t="s">
-        <v>439</v>
+    </row>
+    <row r="100" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>445</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>446</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>447</v>
+      </c>
+      <c r="I100" s="9" t="s">
+        <v>448</v>
+      </c>
+      <c r="J100" s="9" t="s">
+        <v>449</v>
+      </c>
+      <c r="K100" s="9" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B101" s="9" t="s">
@@ -5755,22 +5773,22 @@
         <v>15</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="I101" s="9" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5790,22 +5808,22 @@
         <v>15</v>
       </c>
       <c r="F102" s="9" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5825,25 +5843,25 @@
         <v>15</v>
       </c>
       <c r="F103" s="9" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="G103" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="I103" s="9" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="K103" s="9" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="9" t="s">
         <v>11</v>
       </c>
@@ -5860,25 +5878,25 @@
         <v>15</v>
       </c>
       <c r="F104" s="9" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="H104" s="9" t="s">
         <v>462</v>
       </c>
       <c r="I104" s="9" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>448</v>
+        <v>467</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="9" t="s">
         <v>11</v>
       </c>
@@ -5895,25 +5913,25 @@
         <v>15</v>
       </c>
       <c r="F105" s="9" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="G105" s="9" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="H105" s="9" t="s">
         <v>462</v>
       </c>
       <c r="I105" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="9" t="s">
         <v>11</v>
       </c>
@@ -5930,22 +5948,22 @@
         <v>15</v>
       </c>
       <c r="F106" s="9" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H106" s="9" t="s">
         <v>462</v>
       </c>
       <c r="I106" s="9" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,22 +5983,22 @@
         <v>15</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6000,25 +6018,25 @@
         <v>15</v>
       </c>
       <c r="F108" s="9" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G108" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="I108" s="9" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="9" t="s">
         <v>11</v>
       </c>
@@ -6035,25 +6053,25 @@
         <v>15</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="G109" s="9" t="s">
         <v>462</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="I109" s="9" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="9" t="s">
         <v>11</v>
       </c>
@@ -6070,22 +6088,22 @@
         <v>15</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="G110" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="H110" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="I110" s="9" t="s">
         <v>462</v>
-      </c>
-      <c r="H110" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="I110" s="9" t="s">
-        <v>478</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>467</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6105,22 +6123,22 @@
         <v>15</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="I111" s="9" t="s">
         <v>462</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6140,22 +6158,22 @@
         <v>15</v>
       </c>
       <c r="F112" s="9" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="I112" s="9" t="s">
         <v>462</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6175,22 +6193,22 @@
         <v>15</v>
       </c>
       <c r="F113" s="9" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>446</v>
+        <v>475</v>
       </c>
       <c r="I113" s="9" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K113" s="9" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6210,25 +6228,25 @@
         <v>15</v>
       </c>
       <c r="F114" s="9" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G114" s="9" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H114" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="I114" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="I114" s="9" t="s">
-        <v>484</v>
-      </c>
       <c r="J114" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="9" t="s">
         <v>11</v>
       </c>
@@ -6245,25 +6263,25 @@
         <v>15</v>
       </c>
       <c r="F115" s="9" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="G115" s="9" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H115" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="I115" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="J115" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="I115" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="J115" s="9" t="s">
-        <v>466</v>
-      </c>
       <c r="K115" s="9" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="9" t="s">
         <v>11</v>
       </c>
@@ -6280,25 +6298,25 @@
         <v>15</v>
       </c>
       <c r="F116" s="9" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="G116" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="H116" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="I116" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="J116" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="H116" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="I116" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>467</v>
-      </c>
       <c r="K116" s="9" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="9" t="s">
         <v>11</v>
       </c>
@@ -6315,25 +6333,25 @@
         <v>15</v>
       </c>
       <c r="F117" s="9" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="G117" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>489</v>
+        <v>462</v>
+      </c>
+      <c r="H117" s="9" t="n">
+        <v>24</v>
       </c>
       <c r="I117" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="J117" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="K117" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>469</v>
+      </c>
+      <c r="K117" s="9" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="9" t="s">
         <v>11</v>
       </c>
@@ -6350,25 +6368,25 @@
         <v>15</v>
       </c>
       <c r="F118" s="9" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="G118" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="H118" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="I118" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="J118" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="H118" s="9" t="n">
-        <v>24</v>
-      </c>
-      <c r="I118" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="J118" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="K118" s="9" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K118" s="9" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="9" t="s">
         <v>11</v>
       </c>
@@ -6385,25 +6403,25 @@
         <v>15</v>
       </c>
       <c r="F119" s="9" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G119" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="I119" s="9" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="J119" s="9" t="s">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="K119" s="9" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="9" t="s">
         <v>11</v>
       </c>
@@ -6420,60 +6438,60 @@
         <v>15</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G120" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="H120" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="I120" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="J120" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="K120" s="9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="G121" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="H120" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="I120" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="J120" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="K120" s="9" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B121" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C121" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F121" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="G121" s="9" t="s">
-        <v>496</v>
-      </c>
       <c r="H121" s="9" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I121" s="9" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="J121" s="9" t="s">
-        <v>498</v>
+        <v>456</v>
       </c>
       <c r="K121" s="9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="9" t="s">
         <v>11</v>
       </c>
@@ -6490,25 +6508,25 @@
         <v>15</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="H122" s="9" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="I122" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="J122" s="9" t="s">
-        <v>456</v>
+        <v>504</v>
       </c>
       <c r="K122" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="9" t="s">
         <v>11</v>
       </c>
@@ -6525,25 +6543,25 @@
         <v>15</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="G123" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="H123" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="I123" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="J123" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="H123" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="I123" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="J123" s="9" t="s">
+      <c r="K123" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="K123" s="9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="124" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="9" t="s">
         <v>11</v>
       </c>
@@ -6560,25 +6578,25 @@
         <v>15</v>
       </c>
       <c r="F124" s="9" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G124" s="9" t="s">
+        <v>498</v>
+      </c>
+      <c r="H124" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="I124" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="J124" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="H124" s="9" t="s">
-        <v>504</v>
-      </c>
-      <c r="I124" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="J124" s="9" t="s">
-        <v>503</v>
-      </c>
       <c r="K124" s="9" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="9" t="s">
         <v>11</v>
       </c>
@@ -6595,25 +6613,25 @@
         <v>15</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="I125" s="9" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="J125" s="9" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="K125" s="9" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="9" t="s">
         <v>11</v>
       </c>
@@ -6630,25 +6648,25 @@
         <v>15</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="I126" s="9" t="s">
-        <v>510</v>
+        <v>475</v>
       </c>
       <c r="J126" s="9" t="s">
-        <v>511</v>
+        <v>457</v>
       </c>
       <c r="K126" s="9" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="9" t="s">
         <v>11</v>
       </c>
@@ -6665,25 +6683,25 @@
         <v>15</v>
       </c>
       <c r="F127" s="9" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="I127" s="9" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="J127" s="9" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="K127" s="9" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="9" t="s">
         <v>11</v>
       </c>
@@ -6700,25 +6718,25 @@
         <v>15</v>
       </c>
       <c r="F128" s="9" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="H128" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="I128" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="I128" s="9" t="s">
+      <c r="J128" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="J128" s="9" t="s">
-        <v>510</v>
-      </c>
       <c r="K128" s="9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="9" t="s">
         <v>11</v>
       </c>
@@ -6735,22 +6753,22 @@
         <v>15</v>
       </c>
       <c r="F129" s="9" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G129" s="9" t="s">
+        <v>517</v>
+      </c>
+      <c r="H129" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="H129" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="I129" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J129" s="9" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="K129" s="9" t="s">
-        <v>457</v>
+        <v>517</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6770,22 +6788,22 @@
         <v>15</v>
       </c>
       <c r="F130" s="9" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>517</v>
+        <v>462</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>475</v>
+        <v>501</v>
       </c>
       <c r="I130" s="9" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="J130" s="9" t="s">
-        <v>465</v>
+        <v>510</v>
       </c>
       <c r="K130" s="9" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,25 +6823,25 @@
         <v>15</v>
       </c>
       <c r="F131" s="9" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="G131" s="9" t="s">
+        <v>520</v>
+      </c>
+      <c r="H131" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="H131" s="9" t="s">
-        <v>501</v>
-      </c>
       <c r="I131" s="9" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="J131" s="9" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="K131" s="9" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="9" t="s">
         <v>11</v>
       </c>
@@ -6840,25 +6858,25 @@
         <v>15</v>
       </c>
       <c r="F132" s="9" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="H132" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="I132" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="I132" s="9" t="s">
-        <v>508</v>
-      </c>
       <c r="J132" s="9" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="K132" s="9" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="9" t="s">
         <v>11</v>
       </c>
@@ -6875,25 +6893,23 @@
         <v>15</v>
       </c>
       <c r="F133" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="G133" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="G133" s="10"/>
+      <c r="H133" s="9" t="s">
+        <v>527</v>
+      </c>
+      <c r="I133" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="H133" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="I133" s="9" t="s">
-        <v>462</v>
-      </c>
       <c r="J133" s="9" t="s">
-        <v>525</v>
+        <v>463</v>
       </c>
       <c r="K133" s="9" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="9" t="s">
         <v>11</v>
       </c>
@@ -6910,23 +6926,25 @@
         <v>15</v>
       </c>
       <c r="F134" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="G134" s="10"/>
+        <v>528</v>
+      </c>
+      <c r="G134" s="9" t="s">
+        <v>475</v>
+      </c>
       <c r="H134" s="9" t="s">
-        <v>527</v>
+        <v>462</v>
       </c>
       <c r="I134" s="9" t="s">
-        <v>524</v>
+        <v>461</v>
       </c>
       <c r="J134" s="9" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="K134" s="9" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="9" t="s">
         <v>11</v>
       </c>
@@ -6943,25 +6961,23 @@
         <v>15</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="G135" s="9" t="s">
+        <v>456</v>
+      </c>
+      <c r="H135" s="9" t="s">
+        <v>466</v>
+      </c>
+      <c r="I135" s="10"/>
+      <c r="J135" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="H135" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="I135" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="J135" s="9" t="s">
-        <v>503</v>
-      </c>
       <c r="K135" s="9" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="9" t="s">
         <v>11</v>
       </c>
@@ -6978,23 +6994,25 @@
         <v>15</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="I136" s="10"/>
+        <v>506</v>
+      </c>
+      <c r="I136" s="9" t="s">
+        <v>508</v>
+      </c>
       <c r="J136" s="9" t="s">
-        <v>475</v>
+        <v>503</v>
       </c>
       <c r="K136" s="9" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="64.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="9" t="s">
         <v>11</v>
       </c>
@@ -7011,25 +7029,25 @@
         <v>15</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G137" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="H137" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="H137" s="9" t="s">
-        <v>506</v>
-      </c>
       <c r="I137" s="9" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="J137" s="9" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="K137" s="9" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="9" t="s">
         <v>11</v>
       </c>
@@ -7046,22 +7064,20 @@
         <v>15</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="G138" s="9" t="s">
-        <v>508</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="G138" s="10"/>
       <c r="H138" s="9" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="I138" s="9" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="J138" s="9" t="s">
-        <v>510</v>
+        <v>535</v>
       </c>
       <c r="K138" s="9" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7081,23 +7097,25 @@
         <v>15</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="G139" s="10"/>
+        <v>536</v>
+      </c>
+      <c r="G139" s="9" t="s">
+        <v>456</v>
+      </c>
       <c r="H139" s="9" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="I139" s="9" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="J139" s="9" t="s">
-        <v>535</v>
+        <v>466</v>
       </c>
       <c r="K139" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="9" t="s">
         <v>11</v>
       </c>
@@ -7114,22 +7132,22 @@
         <v>15</v>
       </c>
       <c r="F140" s="9" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="H140" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="I140" s="9" t="s">
         <v>524</v>
       </c>
-      <c r="I140" s="9" t="s">
-        <v>527</v>
-      </c>
       <c r="J140" s="9" t="s">
-        <v>466</v>
+        <v>538</v>
       </c>
       <c r="K140" s="9" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7149,57 +7167,57 @@
         <v>15</v>
       </c>
       <c r="F141" s="9" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="G141" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="H141" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="I141" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="H141" s="9" t="s">
+      <c r="J141" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="K141" s="9" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="D142" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>542</v>
+      </c>
+      <c r="G142" s="9" t="s">
+        <v>543</v>
+      </c>
+      <c r="H142" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="I141" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="J141" s="9" t="s">
-        <v>538</v>
-      </c>
-      <c r="K141" s="9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C142" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F142" s="9" t="s">
-        <v>539</v>
-      </c>
-      <c r="G142" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="H142" s="9" t="s">
-        <v>540</v>
-      </c>
       <c r="I142" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="J142" s="9" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="K142" s="9" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7219,22 +7237,22 @@
         <v>15</v>
       </c>
       <c r="F143" s="9" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="I143" s="9" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J143" s="9" t="s">
-        <v>463</v>
+        <v>510</v>
       </c>
       <c r="K143" s="9" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7254,22 +7272,22 @@
         <v>15</v>
       </c>
       <c r="F144" s="9" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="G144" s="9" t="s">
-        <v>545</v>
+        <v>506</v>
       </c>
       <c r="H144" s="9" t="s">
-        <v>508</v>
+        <v>547</v>
       </c>
       <c r="I144" s="9" t="s">
-        <v>503</v>
+        <v>465</v>
       </c>
       <c r="J144" s="9" t="s">
-        <v>510</v>
+        <v>462</v>
       </c>
       <c r="K144" s="9" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7289,25 +7307,25 @@
         <v>15</v>
       </c>
       <c r="F145" s="9" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>506</v>
+        <v>462</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>547</v>
+        <v>456</v>
       </c>
       <c r="I145" s="9" t="s">
-        <v>465</v>
+        <v>549</v>
       </c>
       <c r="J145" s="9" t="s">
-        <v>462</v>
+        <v>503</v>
       </c>
       <c r="K145" s="9" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="9" t="s">
         <v>11</v>
       </c>
@@ -7324,25 +7342,25 @@
         <v>15</v>
       </c>
       <c r="F146" s="9" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>462</v>
+        <v>551</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="I146" s="9" t="s">
-        <v>549</v>
+        <v>461</v>
       </c>
       <c r="J146" s="9" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="K146" s="9" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="9" t="s">
         <v>11</v>
       </c>
@@ -7359,25 +7377,25 @@
         <v>15</v>
       </c>
       <c r="F147" s="9" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="H147" s="9" t="s">
+        <v>554</v>
+      </c>
+      <c r="I147" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="J147" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="I147" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="J147" s="9" t="s">
-        <v>463</v>
-      </c>
       <c r="K147" s="9" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="9" t="s">
         <v>11</v>
       </c>
@@ -7394,25 +7412,25 @@
         <v>15</v>
       </c>
       <c r="F148" s="9" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>553</v>
+        <v>462</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>554</v>
+        <v>510</v>
       </c>
       <c r="I148" s="9" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="J148" s="9" t="s">
-        <v>506</v>
+        <v>557</v>
       </c>
       <c r="K148" s="9" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="9" t="s">
         <v>11</v>
       </c>
@@ -7429,25 +7447,25 @@
         <v>15</v>
       </c>
       <c r="F149" s="9" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>462</v>
+        <v>553</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="I149" s="9" t="s">
-        <v>556</v>
+        <v>506</v>
       </c>
       <c r="J149" s="9" t="s">
-        <v>557</v>
+        <v>467</v>
       </c>
       <c r="K149" s="9" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="9" t="s">
         <v>11</v>
       </c>
@@ -7464,25 +7482,25 @@
         <v>15</v>
       </c>
       <c r="F150" s="9" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="G150" s="9" t="s">
-        <v>553</v>
+        <v>457</v>
       </c>
       <c r="H150" s="9" t="s">
-        <v>506</v>
+        <v>467</v>
       </c>
       <c r="I150" s="9" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="J150" s="9" t="s">
-        <v>467</v>
+        <v>560</v>
       </c>
       <c r="K150" s="9" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="9" t="s">
         <v>11</v>
       </c>
@@ -7499,25 +7517,25 @@
         <v>15</v>
       </c>
       <c r="F151" s="9" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="I151" s="9" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="J151" s="9" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="K151" s="9" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="9" t="s">
         <v>11</v>
       </c>
@@ -7534,22 +7552,20 @@
         <v>15</v>
       </c>
       <c r="F152" s="9" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G152" s="9" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="I152" s="9" t="s">
-        <v>503</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="I152" s="10"/>
       <c r="J152" s="9" t="s">
-        <v>545</v>
+        <v>467</v>
       </c>
       <c r="K152" s="9" t="s">
-        <v>503</v>
+        <v>563</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7569,20 +7585,20 @@
         <v>15</v>
       </c>
       <c r="F153" s="9" t="s">
-        <v>562</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>461</v>
-      </c>
+        <v>564</v>
+      </c>
+      <c r="G153" s="10"/>
       <c r="H153" s="9" t="s">
-        <v>563</v>
-      </c>
-      <c r="I153" s="10"/>
+        <v>553</v>
+      </c>
+      <c r="I153" s="9" t="s">
+        <v>469</v>
+      </c>
       <c r="J153" s="9" t="s">
-        <v>467</v>
+        <v>510</v>
       </c>
       <c r="K153" s="9" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7602,20 +7618,22 @@
         <v>15</v>
       </c>
       <c r="F154" s="9" t="s">
-        <v>564</v>
-      </c>
-      <c r="G154" s="10"/>
+        <v>566</v>
+      </c>
+      <c r="G154" s="9" t="s">
+        <v>462</v>
+      </c>
       <c r="H154" s="9" t="s">
-        <v>553</v>
+        <v>467</v>
       </c>
       <c r="I154" s="9" t="s">
-        <v>469</v>
+        <v>567</v>
       </c>
       <c r="J154" s="9" t="s">
-        <v>510</v>
+        <v>463</v>
       </c>
       <c r="K154" s="9" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7635,22 +7653,22 @@
         <v>15</v>
       </c>
       <c r="F155" s="9" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G155" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="H155" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="H155" s="9" t="s">
+      <c r="I155" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="I155" s="9" t="s">
-        <v>567</v>
-      </c>
       <c r="J155" s="9" t="s">
-        <v>463</v>
+        <v>569</v>
       </c>
       <c r="K155" s="9" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7670,22 +7688,22 @@
         <v>15</v>
       </c>
       <c r="F156" s="9" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="H156" s="9" t="s">
-        <v>462</v>
+        <v>560</v>
       </c>
       <c r="I156" s="9" t="s">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="J156" s="9" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="K156" s="9" t="s">
-        <v>569</v>
+        <v>534</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,22 +7723,20 @@
         <v>15</v>
       </c>
       <c r="F157" s="9" t="s">
-        <v>570</v>
-      </c>
-      <c r="G157" s="9" t="s">
-        <v>534</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="G157" s="10"/>
       <c r="H157" s="9" t="s">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="I157" s="9" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="J157" s="9" t="s">
-        <v>571</v>
+        <v>466</v>
       </c>
       <c r="K157" s="9" t="s">
-        <v>534</v>
+        <v>573</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7740,23 +7756,25 @@
         <v>15</v>
       </c>
       <c r="F158" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="G158" s="10"/>
+        <v>574</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>461</v>
+      </c>
       <c r="H158" s="9" t="s">
-        <v>573</v>
+        <v>462</v>
       </c>
       <c r="I158" s="9" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
       <c r="J158" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K158" s="9" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="9" t="s">
         <v>11</v>
       </c>
@@ -7773,25 +7791,25 @@
         <v>15</v>
       </c>
       <c r="F159" s="9" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G159" s="9" t="s">
-        <v>461</v>
+        <v>577</v>
       </c>
       <c r="H159" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="I159" s="9" t="s">
+        <v>457</v>
+      </c>
+      <c r="J159" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="I159" s="9" t="s">
-        <v>575</v>
-      </c>
-      <c r="J159" s="9" t="s">
-        <v>465</v>
-      </c>
       <c r="K159" s="9" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="9" t="s">
         <v>11</v>
       </c>
@@ -7808,22 +7826,22 @@
         <v>15</v>
       </c>
       <c r="F160" s="9" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G160" s="9" t="s">
-        <v>577</v>
+        <v>461</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>465</v>
+        <v>579</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="J160" s="9" t="s">
-        <v>462</v>
+        <v>475</v>
       </c>
       <c r="K160" s="9" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7843,25 +7861,25 @@
         <v>15</v>
       </c>
       <c r="F161" s="9" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G161" s="9" t="s">
-        <v>461</v>
+        <v>508</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>579</v>
+        <v>462</v>
       </c>
       <c r="I161" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="J161" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="J161" s="9" t="s">
-        <v>475</v>
-      </c>
       <c r="K161" s="9" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="9" t="s">
         <v>11</v>
       </c>
@@ -7878,25 +7896,25 @@
         <v>15</v>
       </c>
       <c r="F162" s="9" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="G162" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="H162" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="H162" s="9" t="s">
-        <v>462</v>
-      </c>
       <c r="I162" s="9" t="s">
-        <v>581</v>
+        <v>475</v>
       </c>
       <c r="J162" s="9" t="s">
-        <v>467</v>
+        <v>583</v>
       </c>
       <c r="K162" s="9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="9" t="s">
         <v>11</v>
       </c>
@@ -7913,25 +7931,25 @@
         <v>15</v>
       </c>
       <c r="F163" s="9" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="G163" s="9" t="s">
+        <v>585</v>
+      </c>
+      <c r="H163" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="H163" s="9" t="s">
-        <v>508</v>
-      </c>
       <c r="I163" s="9" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
       <c r="J163" s="9" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="K163" s="9" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="9" t="s">
         <v>11</v>
       </c>
@@ -7939,34 +7957,34 @@
         <v>443</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>541</v>
+        <v>207</v>
       </c>
       <c r="D164" s="9" t="s">
-        <v>14</v>
+        <v>208</v>
       </c>
       <c r="E164" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F164" s="9" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="G164" s="9" t="s">
-        <v>585</v>
+        <v>467</v>
       </c>
       <c r="H164" s="9" t="s">
+        <v>588</v>
+      </c>
+      <c r="I164" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="I164" s="9" t="s">
-        <v>461</v>
-      </c>
       <c r="J164" s="9" t="s">
-        <v>586</v>
+        <v>465</v>
       </c>
       <c r="K164" s="9" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="9" t="s">
         <v>11</v>
       </c>
@@ -7983,22 +8001,22 @@
         <v>15</v>
       </c>
       <c r="F165" s="9" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="G165" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="H165" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="I165" s="9" t="s">
+        <v>590</v>
+      </c>
+      <c r="J165" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="H165" s="9" t="s">
-        <v>588</v>
-      </c>
-      <c r="I165" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="J165" s="9" t="s">
-        <v>465</v>
-      </c>
       <c r="K165" s="9" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8018,22 +8036,22 @@
         <v>15</v>
       </c>
       <c r="F166" s="9" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>586</v>
+        <v>456</v>
       </c>
       <c r="H166" s="9" t="s">
-        <v>462</v>
+        <v>565</v>
       </c>
       <c r="I166" s="9" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="J166" s="9" t="s">
-        <v>467</v>
+        <v>571</v>
       </c>
       <c r="K166" s="9" t="s">
-        <v>590</v>
+        <v>571</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8053,25 +8071,25 @@
         <v>15</v>
       </c>
       <c r="F167" s="9" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G167" s="9" t="s">
-        <v>456</v>
+        <v>545</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>565</v>
+        <v>510</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>565</v>
+        <v>508</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>571</v>
+        <v>461</v>
       </c>
       <c r="K167" s="9" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="9" t="s">
         <v>11</v>
       </c>
@@ -8088,25 +8106,25 @@
         <v>15</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>545</v>
+        <v>594</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="K168" s="9" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="9" t="s">
         <v>11</v>
       </c>
@@ -8123,25 +8141,25 @@
         <v>15</v>
       </c>
       <c r="F169" s="9" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="G169" s="9" t="s">
-        <v>594</v>
+        <v>456</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="I169" s="9" t="s">
+        <v>596</v>
+      </c>
+      <c r="J169" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="J169" s="9" t="s">
-        <v>466</v>
-      </c>
       <c r="K169" s="9" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="9" t="s">
         <v>11</v>
       </c>
@@ -8158,22 +8176,22 @@
         <v>15</v>
       </c>
       <c r="F170" s="9" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="G170" s="9" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="H170" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="I170" s="9" t="s">
         <v>467</v>
-      </c>
-      <c r="I170" s="9" t="s">
-        <v>596</v>
       </c>
       <c r="J170" s="9" t="s">
         <v>475</v>
       </c>
       <c r="K170" s="9" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8193,25 +8211,25 @@
         <v>15</v>
       </c>
       <c r="F171" s="9" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="G171" s="9" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H171" s="9" t="s">
-        <v>598</v>
+        <v>461</v>
       </c>
       <c r="I171" s="9" t="s">
-        <v>467</v>
+        <v>557</v>
       </c>
       <c r="J171" s="9" t="s">
-        <v>475</v>
+        <v>600</v>
       </c>
       <c r="K171" s="9" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="9" t="s">
         <v>11</v>
       </c>
@@ -8228,25 +8246,25 @@
         <v>15</v>
       </c>
       <c r="F172" s="9" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>506</v>
+        <v>602</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="I172" s="9" t="s">
-        <v>557</v>
+        <v>462</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>600</v>
+        <v>565</v>
       </c>
       <c r="K172" s="9" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="52.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="9" t="s">
         <v>11</v>
       </c>
@@ -8263,22 +8281,22 @@
         <v>15</v>
       </c>
       <c r="F173" s="9" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>602</v>
+        <v>467</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>466</v>
+        <v>604</v>
       </c>
       <c r="I173" s="9" t="s">
-        <v>462</v>
+        <v>586</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>565</v>
+        <v>461</v>
       </c>
       <c r="K173" s="9" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8298,13 +8316,13 @@
         <v>15</v>
       </c>
       <c r="F174" s="9" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="G174" s="9" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>604</v>
+        <v>457</v>
       </c>
       <c r="I174" s="9" t="s">
         <v>586</v>
@@ -8313,7 +8331,7 @@
         <v>461</v>
       </c>
       <c r="K174" s="9" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8333,22 +8351,22 @@
         <v>15</v>
       </c>
       <c r="F175" s="9" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="G175" s="9" t="s">
+        <v>607</v>
+      </c>
+      <c r="H175" s="9" t="s">
+        <v>608</v>
+      </c>
+      <c r="I175" s="9" t="s">
         <v>462</v>
-      </c>
-      <c r="H175" s="9" t="s">
-        <v>457</v>
-      </c>
-      <c r="I175" s="9" t="s">
-        <v>586</v>
       </c>
       <c r="J175" s="9" t="s">
         <v>461</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>586</v>
+        <v>608</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8368,22 +8386,22 @@
         <v>15</v>
       </c>
       <c r="F176" s="9" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="G176" s="9" t="s">
-        <v>607</v>
+        <v>506</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>608</v>
+        <v>457</v>
       </c>
       <c r="I176" s="9" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="J176" s="9" t="s">
-        <v>461</v>
+        <v>610</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8403,22 +8421,22 @@
         <v>15</v>
       </c>
       <c r="F177" s="9" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G177" s="9" t="s">
-        <v>506</v>
+        <v>456</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>457</v>
+        <v>612</v>
       </c>
       <c r="I177" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="J177" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="J177" s="9" t="s">
-        <v>610</v>
-      </c>
       <c r="K177" s="9" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8438,22 +8456,22 @@
         <v>15</v>
       </c>
       <c r="F178" s="9" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G178" s="9" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>612</v>
+        <v>461</v>
       </c>
       <c r="I178" s="9" t="s">
-        <v>462</v>
+        <v>614</v>
       </c>
       <c r="J178" s="9" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="K178" s="9" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8473,25 +8491,25 @@
         <v>15</v>
       </c>
       <c r="F179" s="9" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="G179" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="H179" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="H179" s="9" t="s">
+      <c r="I179" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="J179" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="I179" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="J179" s="9" t="s">
-        <v>457</v>
-      </c>
       <c r="K179" s="9" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="9" t="s">
         <v>11</v>
       </c>
@@ -8508,25 +8526,25 @@
         <v>15</v>
       </c>
       <c r="F180" s="9" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="G180" s="9" t="s">
-        <v>616</v>
+        <v>456</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>462</v>
+        <v>618</v>
       </c>
       <c r="I180" s="9" t="s">
-        <v>467</v>
+        <v>612</v>
       </c>
       <c r="J180" s="9" t="s">
-        <v>461</v>
+        <v>619</v>
       </c>
       <c r="K180" s="9" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="9" t="s">
         <v>11</v>
       </c>
@@ -8543,22 +8561,22 @@
         <v>15</v>
       </c>
       <c r="F181" s="9" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="G181" s="9" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>618</v>
+        <v>466</v>
       </c>
       <c r="I181" s="9" t="s">
-        <v>612</v>
+        <v>462</v>
       </c>
       <c r="J181" s="9" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="K181" s="9" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8578,22 +8596,22 @@
         <v>15</v>
       </c>
       <c r="F182" s="9" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="G182" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I182" s="9" t="s">
-        <v>462</v>
+        <v>623</v>
       </c>
       <c r="J182" s="9" t="s">
-        <v>621</v>
+        <v>508</v>
       </c>
       <c r="K182" s="9" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8613,22 +8631,22 @@
         <v>15</v>
       </c>
       <c r="F183" s="9" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="G183" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="H183" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="I183" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="H183" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="I183" s="9" t="s">
-        <v>623</v>
-      </c>
       <c r="J183" s="9" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="K183" s="9" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8648,22 +8666,22 @@
         <v>15</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G184" s="9" t="s">
-        <v>610</v>
+        <v>627</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>625</v>
+        <v>508</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>461</v>
+        <v>565</v>
       </c>
       <c r="K184" s="9" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8674,31 +8692,31 @@
         <v>443</v>
       </c>
       <c r="C185" s="9" t="s">
-        <v>207</v>
+        <v>499</v>
       </c>
       <c r="D185" s="9" t="s">
-        <v>208</v>
+        <v>14</v>
       </c>
       <c r="E185" s="9" t="s">
         <v>15</v>
       </c>
       <c r="F185" s="9" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G185" s="9" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>508</v>
+        <v>461</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>565</v>
+        <v>506</v>
       </c>
       <c r="K185" s="9" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8718,25 +8736,25 @@
         <v>15</v>
       </c>
       <c r="F186" s="9" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G186" s="9" t="s">
-        <v>629</v>
+        <v>607</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="I186" s="9" t="s">
         <v>462</v>
       </c>
       <c r="J186" s="9" t="s">
-        <v>506</v>
+        <v>631</v>
       </c>
       <c r="K186" s="9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="9" t="s">
         <v>11</v>
       </c>
@@ -8753,25 +8771,25 @@
         <v>15</v>
       </c>
       <c r="F187" s="9" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="G187" s="9" t="s">
         <v>607</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="I187" s="9" t="s">
-        <v>462</v>
+        <v>633</v>
       </c>
       <c r="J187" s="9" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="K187" s="9" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="9" t="s">
         <v>11</v>
       </c>
@@ -8788,22 +8806,22 @@
         <v>15</v>
       </c>
       <c r="F188" s="9" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="G188" s="9" t="s">
-        <v>607</v>
+        <v>461</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="I188" s="9" t="s">
-        <v>633</v>
+        <v>557</v>
       </c>
       <c r="J188" s="9" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="K188" s="9" t="s">
-        <v>607</v>
+        <v>557</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8823,25 +8841,25 @@
         <v>15</v>
       </c>
       <c r="F189" s="9" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>461</v>
+        <v>506</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>466</v>
+        <v>637</v>
       </c>
       <c r="I189" s="9" t="s">
-        <v>557</v>
+        <v>465</v>
       </c>
       <c r="J189" s="9" t="s">
-        <v>631</v>
+        <v>506</v>
       </c>
       <c r="K189" s="9" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="9" t="s">
         <v>11</v>
       </c>
@@ -8858,25 +8876,25 @@
         <v>15</v>
       </c>
       <c r="F190" s="9" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>506</v>
+        <v>639</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>637</v>
+        <v>508</v>
       </c>
       <c r="I190" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="J190" s="9" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="K190" s="9" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="9" t="s">
         <v>11</v>
       </c>
@@ -8893,22 +8911,22 @@
         <v>15</v>
       </c>
       <c r="F191" s="9" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>639</v>
+        <v>461</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>508</v>
+        <v>614</v>
       </c>
       <c r="I191" s="9" t="s">
         <v>462</v>
       </c>
       <c r="J191" s="9" t="s">
-        <v>466</v>
+        <v>641</v>
       </c>
       <c r="K191" s="9" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8928,25 +8946,25 @@
         <v>15</v>
       </c>
       <c r="F192" s="9" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="G192" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="H192" s="9" t="s">
+        <v>633</v>
+      </c>
+      <c r="I192" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="H192" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="I192" s="9" t="s">
-        <v>462</v>
-      </c>
       <c r="J192" s="9" t="s">
-        <v>641</v>
+        <v>466</v>
       </c>
       <c r="K192" s="9" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="9" t="s">
         <v>11</v>
       </c>
@@ -8963,25 +8981,25 @@
         <v>15</v>
       </c>
       <c r="F193" s="9" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G193" s="9" t="s">
-        <v>506</v>
+        <v>644</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>633</v>
+        <v>467</v>
       </c>
       <c r="I193" s="9" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="J193" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K193" s="9" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="9" t="s">
         <v>11</v>
       </c>
@@ -8998,22 +9016,22 @@
         <v>15</v>
       </c>
       <c r="F194" s="9" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="G194" s="9" t="s">
-        <v>644</v>
+        <v>586</v>
       </c>
       <c r="H194" s="9" t="s">
         <v>467</v>
       </c>
       <c r="I194" s="9" t="s">
-        <v>462</v>
+        <v>646</v>
       </c>
       <c r="J194" s="9" t="s">
-        <v>465</v>
+        <v>545</v>
       </c>
       <c r="K194" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9033,25 +9051,25 @@
         <v>15</v>
       </c>
       <c r="F195" s="9" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="G195" s="9" t="s">
-        <v>586</v>
+        <v>466</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>467</v>
+        <v>557</v>
       </c>
       <c r="I195" s="9" t="s">
-        <v>646</v>
+        <v>607</v>
       </c>
       <c r="J195" s="9" t="s">
-        <v>545</v>
+        <v>619</v>
       </c>
       <c r="K195" s="9" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="9" t="s">
         <v>11</v>
       </c>
@@ -9068,25 +9086,25 @@
         <v>15</v>
       </c>
       <c r="F196" s="9" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G196" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="H196" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="I196" s="9" t="s">
+        <v>462</v>
+      </c>
+      <c r="J196" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="H196" s="9" t="s">
-        <v>557</v>
-      </c>
-      <c r="I196" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="J196" s="9" t="s">
-        <v>619</v>
-      </c>
       <c r="K196" s="9" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="9" t="s">
         <v>11</v>
       </c>
@@ -9103,22 +9121,22 @@
         <v>15</v>
       </c>
       <c r="F197" s="9" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G197" s="9" t="s">
+        <v>650</v>
+      </c>
+      <c r="H197" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="I197" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="H197" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="I197" s="9" t="s">
-        <v>462</v>
-      </c>
       <c r="J197" s="9" t="s">
-        <v>466</v>
+        <v>506</v>
       </c>
       <c r="K197" s="9" t="s">
-        <v>634</v>
+        <v>650</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9138,59 +9156,25 @@
         <v>15</v>
       </c>
       <c r="F198" s="9" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="G198" s="9" t="s">
-        <v>650</v>
+        <v>508</v>
       </c>
       <c r="H198" s="9" t="s">
-        <v>465</v>
+        <v>652</v>
       </c>
       <c r="I198" s="9" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="J198" s="9" t="s">
-        <v>506</v>
+        <v>586</v>
       </c>
       <c r="K198" s="9" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="39.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>443</v>
-      </c>
-      <c r="C199" s="9" t="s">
-        <v>499</v>
-      </c>
-      <c r="D199" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E199" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F199" s="9" t="s">
-        <v>651</v>
-      </c>
-      <c r="G199" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="H199" s="9" t="s">
         <v>652</v>
       </c>
-      <c r="I199" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="J199" s="9" t="s">
-        <v>586</v>
-      </c>
-      <c r="K199" s="9" t="s">
-        <v>652</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
